--- a/Docs/ZeitPlan.xlsx
+++ b/Docs/ZeitPlan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>TAG</t>
   </si>
@@ -100,13 +100,28 @@
   </si>
   <si>
     <t>Zusammensetzung</t>
+  </si>
+  <si>
+    <t>Ampelkonfiguration</t>
+  </si>
+  <si>
+    <t>Shift Register</t>
+  </si>
+  <si>
+    <t>HW-Verbinden</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Timed-Interrupts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +150,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Britannic Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Britannic Bold"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -223,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -695,11 +723,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -802,134 +850,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -982,21 +904,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1011,6 +918,169 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1291,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:W39"/>
+  <dimension ref="B1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="Q3" sqref="Q3:S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,14 +1376,14 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="204" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
       <c r="H2" s="84"/>
       <c r="I2" s="84"/>
       <c r="J2" s="84"/>
@@ -1329,15 +1399,15 @@
       <c r="T2" s="84"/>
       <c r="U2" s="84"/>
       <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
+      <c r="W2" s="201"/>
     </row>
     <row r="3" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="94"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
       <c r="H3" s="85"/>
       <c r="I3" s="85"/>
       <c r="J3" s="85"/>
@@ -1346,24 +1416,24 @@
       <c r="M3" s="85"/>
       <c r="N3" s="85"/>
       <c r="O3" s="85"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="132" t="s">
+      <c r="P3" s="93"/>
+      <c r="Q3" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="133"/>
-      <c r="S3" s="134"/>
+      <c r="R3" s="211"/>
+      <c r="S3" s="212"/>
       <c r="T3" s="85"/>
       <c r="U3" s="85"/>
       <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
+      <c r="W3" s="202"/>
     </row>
     <row r="4" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
       <c r="H4" s="85"/>
       <c r="I4" s="85"/>
       <c r="J4" s="85"/>
@@ -1372,24 +1442,24 @@
       <c r="M4" s="85"/>
       <c r="N4" s="85"/>
       <c r="O4" s="85"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="132" t="s">
+      <c r="P4" s="92"/>
+      <c r="Q4" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="133"/>
-      <c r="S4" s="134"/>
+      <c r="R4" s="211"/>
+      <c r="S4" s="212"/>
       <c r="T4" s="85"/>
       <c r="U4" s="85"/>
       <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
+      <c r="W4" s="202"/>
     </row>
     <row r="5" spans="2:23" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="96"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
+      <c r="B5" s="208"/>
+      <c r="C5" s="209"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
+      <c r="F5" s="209"/>
+      <c r="G5" s="209"/>
       <c r="H5" s="86"/>
       <c r="I5" s="86"/>
       <c r="J5" s="86"/>
@@ -1405,43 +1475,43 @@
       <c r="T5" s="86"/>
       <c r="U5" s="86"/>
       <c r="V5" s="86"/>
-      <c r="W5" s="86"/>
+      <c r="W5" s="203"/>
     </row>
     <row r="6" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="99">
+      <c r="D6" s="191">
         <v>1</v>
       </c>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="98">
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="192">
         <v>2</v>
       </c>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="99">
+      <c r="I6" s="192"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="192"/>
+      <c r="L6" s="191">
         <v>3</v>
       </c>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="98">
+      <c r="M6" s="192"/>
+      <c r="N6" s="192"/>
+      <c r="O6" s="193"/>
+      <c r="P6" s="192">
         <v>4</v>
       </c>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="99">
+      <c r="Q6" s="192"/>
+      <c r="R6" s="192"/>
+      <c r="S6" s="192"/>
+      <c r="T6" s="198">
         <v>5</v>
       </c>
-      <c r="U6" s="98"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="100"/>
+      <c r="U6" s="199"/>
+      <c r="V6" s="199"/>
+      <c r="W6" s="200"/>
     </row>
     <row r="7" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
@@ -1450,151 +1520,151 @@
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="D7" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="99" t="s">
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="191" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="99" t="s">
+      <c r="I7" s="192"/>
+      <c r="J7" s="192"/>
+      <c r="K7" s="193"/>
+      <c r="L7" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="99" t="s">
+      <c r="M7" s="192"/>
+      <c r="N7" s="192"/>
+      <c r="O7" s="193"/>
+      <c r="P7" s="191" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="99" t="s">
+      <c r="Q7" s="192"/>
+      <c r="R7" s="192"/>
+      <c r="S7" s="193"/>
+      <c r="T7" s="198" t="s">
         <v>22</v>
       </c>
-      <c r="U7" s="98"/>
-      <c r="V7" s="98"/>
-      <c r="W7" s="100"/>
-    </row>
-    <row r="8" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="108" t="s">
+      <c r="U7" s="199"/>
+      <c r="V7" s="199"/>
+      <c r="W7" s="200"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="129" t="s">
+      <c r="C8" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="189"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="140"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="138"/>
-      <c r="P8" s="139"/>
-      <c r="Q8" s="137"/>
-      <c r="R8" s="137"/>
-      <c r="S8" s="140"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="98"/>
       <c r="T8" s="3"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="5"/>
     </row>
-    <row r="9" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="109"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="201"/>
+    <row r="9" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="178"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="142"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="100"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="143"/>
+      <c r="K9" s="101"/>
       <c r="L9" s="9"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="141"/>
-      <c r="P9" s="142"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="100"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="143"/>
+      <c r="S9" s="101"/>
       <c r="T9" s="6"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="8"/>
     </row>
-    <row r="10" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="109"/>
-      <c r="C10" s="129" t="s">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="178"/>
+      <c r="C10" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="144"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="191"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="144"/>
-      <c r="M10" s="145"/>
-      <c r="N10" s="145"/>
-      <c r="O10" s="146"/>
-      <c r="P10" s="147"/>
-      <c r="Q10" s="145"/>
-      <c r="R10" s="145"/>
-      <c r="S10" s="148"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="103"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="106"/>
       <c r="T10" s="87"/>
       <c r="U10" s="88"/>
       <c r="V10" s="88"/>
       <c r="W10" s="89"/>
     </row>
-    <row r="11" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="110"/>
-      <c r="C11" s="130"/>
+    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="179"/>
+      <c r="C11" s="183"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="202"/>
-      <c r="H11" s="142"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="100"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="143"/>
+      <c r="K11" s="101"/>
       <c r="L11" s="9"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="141"/>
-      <c r="P11" s="142"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="100"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
-      <c r="S11" s="143"/>
+      <c r="S11" s="101"/>
       <c r="T11" s="6"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="8"/>
     </row>
     <row r="12" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="113" t="s">
+      <c r="B12" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="111" t="s">
+      <c r="C12" s="180" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="193"/>
+      <c r="H12" s="146"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="14"/>
@@ -1612,8 +1682,8 @@
       <c r="W12" s="12"/>
     </row>
     <row r="13" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="114"/>
-      <c r="C13" s="112"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="181"/>
       <c r="D13" s="21"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
@@ -1636,8 +1706,8 @@
       <c r="W13" s="23"/>
     </row>
     <row r="14" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="114"/>
-      <c r="C14" s="111" t="s">
+      <c r="B14" s="185"/>
+      <c r="C14" s="180" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="15"/>
@@ -1645,7 +1715,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="194"/>
+      <c r="I14" s="147"/>
       <c r="J14" s="11"/>
       <c r="K14" s="14"/>
       <c r="L14" s="15"/>
@@ -1662,8 +1732,8 @@
       <c r="W14" s="12"/>
     </row>
     <row r="15" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="115"/>
-      <c r="C15" s="112"/>
+      <c r="B15" s="186"/>
+      <c r="C15" s="181"/>
       <c r="D15" s="20"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -1686,18 +1756,18 @@
       <c r="W15" s="17"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="116" t="s">
+      <c r="B16" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="118" t="s">
+      <c r="C16" s="189" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="28"/>
-      <c r="H16" s="195"/>
-      <c r="I16" s="190"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="143"/>
       <c r="J16" s="27"/>
       <c r="K16" s="30"/>
       <c r="L16" s="26"/>
@@ -1714,8 +1784,8 @@
       <c r="W16" s="28"/>
     </row>
     <row r="17" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="117"/>
-      <c r="C17" s="119"/>
+      <c r="B17" s="188"/>
+      <c r="C17" s="190"/>
       <c r="D17" s="31"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
@@ -1738,23 +1808,25 @@
       <c r="W17" s="33"/>
     </row>
     <row r="18" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="105" t="s">
+      <c r="B18" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="101"/>
+      <c r="C18" s="170" t="s">
+        <v>27</v>
+      </c>
       <c r="D18" s="36"/>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
       <c r="G18" s="40"/>
       <c r="H18" s="38"/>
       <c r="I18" s="37"/>
-      <c r="J18" s="57"/>
+      <c r="J18" s="143"/>
       <c r="K18" s="91"/>
       <c r="L18" s="56"/>
       <c r="M18" s="57"/>
       <c r="N18" s="57"/>
       <c r="O18" s="90"/>
-      <c r="P18" s="149"/>
+      <c r="P18" s="107"/>
       <c r="Q18" s="57"/>
       <c r="R18" s="57"/>
       <c r="S18" s="39"/>
@@ -1764,23 +1836,23 @@
       <c r="W18" s="40"/>
     </row>
     <row r="19" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="106"/>
-      <c r="C19" s="102"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="171"/>
       <c r="D19" s="41"/>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
       <c r="G19" s="45"/>
       <c r="H19" s="43"/>
       <c r="I19" s="42"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="150"/>
-      <c r="N19" s="150"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="154"/>
-      <c r="Q19" s="150"/>
-      <c r="R19" s="150"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="108"/>
       <c r="S19" s="44"/>
       <c r="T19" s="41"/>
       <c r="U19" s="42"/>
@@ -1788,23 +1860,25 @@
       <c r="W19" s="45"/>
     </row>
     <row r="20" spans="2:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="106"/>
-      <c r="C20" s="103"/>
+      <c r="B20" s="175"/>
+      <c r="C20" s="172" t="s">
+        <v>28</v>
+      </c>
       <c r="D20" s="46"/>
       <c r="E20" s="47"/>
       <c r="F20" s="47"/>
       <c r="G20" s="48"/>
       <c r="H20" s="50"/>
       <c r="I20" s="47"/>
-      <c r="J20" s="155"/>
-      <c r="K20" s="156"/>
-      <c r="L20" s="157"/>
-      <c r="M20" s="155"/>
-      <c r="N20" s="155"/>
-      <c r="O20" s="158"/>
-      <c r="P20" s="159"/>
-      <c r="Q20" s="155"/>
-      <c r="R20" s="155"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="150"/>
+      <c r="L20" s="194"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="113"/>
+      <c r="R20" s="113"/>
       <c r="S20" s="49"/>
       <c r="T20" s="46"/>
       <c r="U20" s="47"/>
@@ -1812,23 +1886,23 @@
       <c r="W20" s="48"/>
     </row>
     <row r="21" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="106"/>
-      <c r="C21" s="104"/>
+      <c r="B21" s="175"/>
+      <c r="C21" s="173"/>
       <c r="D21" s="51"/>
       <c r="E21" s="52"/>
       <c r="F21" s="52"/>
       <c r="G21" s="53"/>
       <c r="H21" s="55"/>
       <c r="I21" s="52"/>
-      <c r="J21" s="160"/>
-      <c r="K21" s="161"/>
-      <c r="L21" s="162"/>
-      <c r="M21" s="160"/>
-      <c r="N21" s="160"/>
-      <c r="O21" s="163"/>
-      <c r="P21" s="164"/>
-      <c r="Q21" s="160"/>
-      <c r="R21" s="160"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="118"/>
+      <c r="N21" s="118"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="118"/>
       <c r="S21" s="54"/>
       <c r="T21" s="51"/>
       <c r="U21" s="52"/>
@@ -1836,8 +1910,10 @@
       <c r="W21" s="53"/>
     </row>
     <row r="22" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="106"/>
-      <c r="C22" s="101"/>
+      <c r="B22" s="175"/>
+      <c r="C22" s="170" t="s">
+        <v>29</v>
+      </c>
       <c r="D22" s="36"/>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
@@ -1846,11 +1922,11 @@
       <c r="I22" s="37"/>
       <c r="J22" s="57"/>
       <c r="K22" s="91"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="57"/>
+      <c r="L22" s="142"/>
+      <c r="M22" s="143"/>
       <c r="N22" s="57"/>
       <c r="O22" s="90"/>
-      <c r="P22" s="149"/>
+      <c r="P22" s="107"/>
       <c r="Q22" s="57"/>
       <c r="R22" s="57"/>
       <c r="S22" s="91"/>
@@ -1860,23 +1936,23 @@
       <c r="W22" s="90"/>
     </row>
     <row r="23" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="106"/>
-      <c r="C23" s="102"/>
+      <c r="B23" s="175"/>
+      <c r="C23" s="171"/>
       <c r="D23" s="41"/>
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
       <c r="G23" s="45"/>
       <c r="H23" s="43"/>
       <c r="I23" s="42"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="152"/>
-      <c r="M23" s="150"/>
-      <c r="N23" s="150"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="154"/>
-      <c r="Q23" s="150"/>
-      <c r="R23" s="150"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="109"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="108"/>
+      <c r="R23" s="108"/>
       <c r="S23" s="44"/>
       <c r="T23" s="41"/>
       <c r="U23" s="42"/>
@@ -1884,23 +1960,25 @@
       <c r="W23" s="45"/>
     </row>
     <row r="24" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="106"/>
-      <c r="C24" s="101"/>
+      <c r="B24" s="175"/>
+      <c r="C24" s="170" t="s">
+        <v>30</v>
+      </c>
       <c r="D24" s="46"/>
       <c r="E24" s="47"/>
       <c r="F24" s="47"/>
       <c r="G24" s="48"/>
       <c r="H24" s="50"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="155"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="157"/>
-      <c r="M24" s="155"/>
-      <c r="N24" s="155"/>
-      <c r="O24" s="158"/>
-      <c r="P24" s="159"/>
-      <c r="Q24" s="155"/>
-      <c r="R24" s="155"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="147"/>
+      <c r="O24" s="149"/>
+      <c r="P24" s="117"/>
+      <c r="Q24" s="113"/>
+      <c r="R24" s="113"/>
       <c r="S24" s="49"/>
       <c r="T24" s="46"/>
       <c r="U24" s="47"/>
@@ -1908,23 +1986,23 @@
       <c r="W24" s="48"/>
     </row>
     <row r="25" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="106"/>
-      <c r="C25" s="102"/>
+      <c r="B25" s="175"/>
+      <c r="C25" s="171"/>
       <c r="D25" s="51"/>
       <c r="E25" s="52"/>
       <c r="F25" s="52"/>
       <c r="G25" s="53"/>
       <c r="H25" s="55"/>
       <c r="I25" s="52"/>
-      <c r="J25" s="160"/>
-      <c r="K25" s="161"/>
-      <c r="L25" s="162"/>
-      <c r="M25" s="160"/>
-      <c r="N25" s="160"/>
-      <c r="O25" s="163"/>
-      <c r="P25" s="164"/>
-      <c r="Q25" s="160"/>
-      <c r="R25" s="160"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="118"/>
+      <c r="N25" s="118"/>
+      <c r="O25" s="121"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="118"/>
+      <c r="R25" s="118"/>
       <c r="S25" s="54"/>
       <c r="T25" s="51"/>
       <c r="U25" s="52"/>
@@ -1932,8 +2010,10 @@
       <c r="W25" s="53"/>
     </row>
     <row r="26" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="106"/>
-      <c r="C26" s="101"/>
+      <c r="B26" s="175"/>
+      <c r="C26" s="170" t="s">
+        <v>31</v>
+      </c>
       <c r="D26" s="36"/>
       <c r="E26" s="37"/>
       <c r="F26" s="37"/>
@@ -1946,8 +2026,8 @@
       <c r="M26" s="57"/>
       <c r="N26" s="57"/>
       <c r="O26" s="90"/>
-      <c r="P26" s="149"/>
-      <c r="Q26" s="57"/>
+      <c r="P26" s="148"/>
+      <c r="Q26" s="143"/>
       <c r="R26" s="57"/>
       <c r="S26" s="91"/>
       <c r="T26" s="56"/>
@@ -1956,8 +2036,8 @@
       <c r="W26" s="90"/>
     </row>
     <row r="27" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="106"/>
-      <c r="C27" s="102"/>
+      <c r="B27" s="176"/>
+      <c r="C27" s="171"/>
       <c r="D27" s="41"/>
       <c r="E27" s="42"/>
       <c r="F27" s="42"/>
@@ -1979,60 +2059,62 @@
       <c r="V27" s="52"/>
       <c r="W27" s="53"/>
     </row>
-    <row r="28" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="106"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="40"/>
-    </row>
-    <row r="29" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="107"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="45"/>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B28" s="160" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="163" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="197"/>
+      <c r="L28" s="142"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="151"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="143"/>
+      <c r="S28" s="62"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="60"/>
+    </row>
+    <row r="29" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="161"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="65"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="65"/>
+      <c r="V29" s="65"/>
+      <c r="W29" s="66"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="124" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="127" t="s">
-        <v>25</v>
+      <c r="B30" s="161"/>
+      <c r="C30" s="163" t="s">
+        <v>26</v>
       </c>
       <c r="D30" s="58"/>
       <c r="E30" s="59"/>
@@ -2041,260 +2123,214 @@
       <c r="H30" s="61"/>
       <c r="I30" s="59"/>
       <c r="J30" s="59"/>
-      <c r="K30" s="199"/>
+      <c r="K30" s="62"/>
       <c r="L30" s="58"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="198"/>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="62"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="195"/>
+      <c r="P30" s="196"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="143"/>
+      <c r="S30" s="152"/>
       <c r="T30" s="58"/>
       <c r="U30" s="59"/>
       <c r="V30" s="59"/>
       <c r="W30" s="60"/>
     </row>
     <row r="31" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="125"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="65"/>
-      <c r="R31" s="65"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="64"/>
-      <c r="U31" s="65"/>
-      <c r="V31" s="65"/>
-      <c r="W31" s="66"/>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="125"/>
-      <c r="C32" s="127" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="198"/>
-      <c r="P32" s="195"/>
-      <c r="Q32" s="63"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="62"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="60"/>
-    </row>
-    <row r="33" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="126"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="70"/>
-      <c r="R33" s="70"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="69"/>
-      <c r="U33" s="70"/>
-      <c r="V33" s="70"/>
-      <c r="W33" s="71"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="70"/>
+      <c r="R31" s="70"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="69"/>
+      <c r="U31" s="70"/>
+      <c r="V31" s="70"/>
+      <c r="W31" s="71"/>
+    </row>
+    <row r="32" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="165" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="127"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="143"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="143"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="126"/>
+      <c r="L32" s="127"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="151"/>
+      <c r="P32" s="125"/>
+      <c r="Q32" s="123"/>
+      <c r="R32" s="123"/>
+      <c r="S32" s="152"/>
+      <c r="T32" s="142"/>
+      <c r="U32" s="143"/>
+      <c r="V32" s="143"/>
+      <c r="W32" s="124"/>
+    </row>
+    <row r="33" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="168"/>
+      <c r="C33" s="166"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="128"/>
+      <c r="K33" s="131"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="128"/>
+      <c r="N33" s="128"/>
+      <c r="O33" s="129"/>
+      <c r="P33" s="130"/>
+      <c r="Q33" s="128"/>
+      <c r="R33" s="128"/>
+      <c r="S33" s="131"/>
+      <c r="T33" s="132"/>
+      <c r="U33" s="128"/>
+      <c r="V33" s="128"/>
+      <c r="W33" s="129"/>
     </row>
     <row r="34" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="184" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="185" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="169"/>
-      <c r="E34" s="165"/>
-      <c r="F34" s="190"/>
-      <c r="G34" s="198"/>
-      <c r="H34" s="167"/>
-      <c r="I34" s="165"/>
-      <c r="J34" s="165"/>
-      <c r="K34" s="168"/>
-      <c r="L34" s="169"/>
-      <c r="M34" s="165"/>
-      <c r="N34" s="165"/>
-      <c r="O34" s="166"/>
-      <c r="P34" s="167"/>
-      <c r="Q34" s="165"/>
-      <c r="R34" s="190"/>
-      <c r="S34" s="199"/>
-      <c r="T34" s="189"/>
-      <c r="U34" s="190"/>
-      <c r="V34" s="165"/>
-      <c r="W34" s="166"/>
+      <c r="B34" s="168"/>
+      <c r="C34" s="165" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="136"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="133"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="133"/>
+      <c r="J34" s="133"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="136"/>
+      <c r="M34" s="133"/>
+      <c r="N34" s="133"/>
+      <c r="O34" s="149"/>
+      <c r="P34" s="135"/>
+      <c r="Q34" s="133"/>
+      <c r="R34" s="133"/>
+      <c r="S34" s="150"/>
+      <c r="T34" s="136"/>
+      <c r="U34" s="133"/>
+      <c r="V34" s="147"/>
+      <c r="W34" s="134"/>
     </row>
     <row r="35" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="186"/>
-      <c r="C35" s="187"/>
-      <c r="D35" s="174"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="201"/>
-      <c r="G35" s="202"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="170"/>
-      <c r="J35" s="170"/>
-      <c r="K35" s="173"/>
-      <c r="L35" s="174"/>
-      <c r="M35" s="170"/>
-      <c r="N35" s="170"/>
-      <c r="O35" s="171"/>
-      <c r="P35" s="172"/>
-      <c r="Q35" s="170"/>
-      <c r="R35" s="170"/>
-      <c r="S35" s="173"/>
-      <c r="T35" s="174"/>
-      <c r="U35" s="170"/>
-      <c r="V35" s="170"/>
-      <c r="W35" s="171"/>
-    </row>
-    <row r="36" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="186"/>
-      <c r="C36" s="185" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="178"/>
-      <c r="E36" s="175"/>
-      <c r="F36" s="175"/>
-      <c r="G36" s="196"/>
-      <c r="H36" s="177"/>
-      <c r="I36" s="175"/>
-      <c r="J36" s="175"/>
-      <c r="K36" s="197"/>
-      <c r="L36" s="178"/>
-      <c r="M36" s="175"/>
-      <c r="N36" s="175"/>
-      <c r="O36" s="196"/>
-      <c r="P36" s="177"/>
-      <c r="Q36" s="175"/>
-      <c r="R36" s="175"/>
-      <c r="S36" s="197"/>
-      <c r="T36" s="178"/>
-      <c r="U36" s="175"/>
-      <c r="V36" s="175"/>
-      <c r="W36" s="176"/>
-    </row>
-    <row r="37" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="188"/>
-      <c r="C37" s="187"/>
-      <c r="D37" s="183"/>
-      <c r="E37" s="179"/>
-      <c r="F37" s="179"/>
-      <c r="G37" s="180"/>
-      <c r="H37" s="181"/>
-      <c r="I37" s="179"/>
-      <c r="J37" s="179"/>
-      <c r="K37" s="182"/>
-      <c r="L37" s="183"/>
-      <c r="M37" s="179"/>
-      <c r="N37" s="179"/>
-      <c r="O37" s="180"/>
-      <c r="P37" s="181"/>
-      <c r="Q37" s="179"/>
-      <c r="R37" s="179"/>
-      <c r="S37" s="182"/>
-      <c r="T37" s="183"/>
-      <c r="U37" s="179"/>
-      <c r="V37" s="179"/>
-      <c r="W37" s="180"/>
-    </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B38" s="120"/>
-      <c r="C38" s="122" t="s">
+      <c r="B35" s="169"/>
+      <c r="C35" s="166"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="138"/>
+      <c r="H35" s="139"/>
+      <c r="I35" s="137"/>
+      <c r="J35" s="137"/>
+      <c r="K35" s="140"/>
+      <c r="L35" s="141"/>
+      <c r="M35" s="137"/>
+      <c r="N35" s="137"/>
+      <c r="O35" s="138"/>
+      <c r="P35" s="139"/>
+      <c r="Q35" s="137"/>
+      <c r="R35" s="137"/>
+      <c r="S35" s="140"/>
+      <c r="T35" s="141"/>
+      <c r="U35" s="137"/>
+      <c r="V35" s="137"/>
+      <c r="W35" s="138"/>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B36" s="156"/>
+      <c r="C36" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="74"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="75"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="76"/>
-      <c r="P38" s="77"/>
-      <c r="Q38" s="190"/>
-      <c r="R38" s="75"/>
-      <c r="S38" s="78"/>
-      <c r="T38" s="74"/>
-      <c r="U38" s="75"/>
-      <c r="V38" s="190"/>
-      <c r="W38" s="198"/>
-    </row>
-    <row r="39" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="121"/>
-      <c r="C39" s="123"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="79"/>
-      <c r="M39" s="80"/>
-      <c r="N39" s="80"/>
-      <c r="O39" s="81"/>
-      <c r="P39" s="82"/>
-      <c r="Q39" s="80"/>
-      <c r="R39" s="80"/>
-      <c r="S39" s="83"/>
-      <c r="T39" s="79"/>
-      <c r="U39" s="80"/>
-      <c r="V39" s="80"/>
-      <c r="W39" s="81"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="77"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="75"/>
+      <c r="S36" s="78"/>
+      <c r="T36" s="74"/>
+      <c r="U36" s="75"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="151"/>
+    </row>
+    <row r="37" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="157"/>
+      <c r="C37" s="159"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="80"/>
+      <c r="R37" s="80"/>
+      <c r="S37" s="83"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="80"/>
+      <c r="V37" s="80"/>
+      <c r="W37" s="81"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B34:B37"/>
+  <mergeCells count="35">
+    <mergeCell ref="B2:G5"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="B18:B27"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
     <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B18:B29"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C15"/>
@@ -2306,19 +2342,14 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="B2:G5"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Docs/ZeitPlan.xlsx
+++ b/Docs/ZeitPlan.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96C569B-3A16-4AA3-9F52-A8A2316CB186}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25050" windowHeight="11310"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -120,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -747,7 +748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -918,124 +919,64 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1045,42 +986,104 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1360,30 +1363,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:S4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="43" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="43" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:23" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="204" t="s">
+    <row r="1" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:23" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
       <c r="H2" s="84"/>
       <c r="I2" s="84"/>
       <c r="J2" s="84"/>
@@ -1399,15 +1402,15 @@
       <c r="T2" s="84"/>
       <c r="U2" s="84"/>
       <c r="V2" s="84"/>
-      <c r="W2" s="201"/>
-    </row>
-    <row r="3" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="206"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
+      <c r="W2" s="160"/>
+    </row>
+    <row r="3" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="165"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
       <c r="H3" s="85"/>
       <c r="I3" s="85"/>
       <c r="J3" s="85"/>
@@ -1417,23 +1420,23 @@
       <c r="N3" s="85"/>
       <c r="O3" s="85"/>
       <c r="P3" s="93"/>
-      <c r="Q3" s="210" t="s">
+      <c r="Q3" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="211"/>
-      <c r="S3" s="212"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="171"/>
       <c r="T3" s="85"/>
       <c r="U3" s="85"/>
       <c r="V3" s="85"/>
-      <c r="W3" s="202"/>
-    </row>
-    <row r="4" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="206"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
+      <c r="W3" s="161"/>
+    </row>
+    <row r="4" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="165"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
       <c r="H4" s="85"/>
       <c r="I4" s="85"/>
       <c r="J4" s="85"/>
@@ -1443,23 +1446,23 @@
       <c r="N4" s="85"/>
       <c r="O4" s="85"/>
       <c r="P4" s="92"/>
-      <c r="Q4" s="210" t="s">
+      <c r="Q4" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="211"/>
-      <c r="S4" s="212"/>
+      <c r="R4" s="170"/>
+      <c r="S4" s="171"/>
       <c r="T4" s="85"/>
       <c r="U4" s="85"/>
       <c r="V4" s="85"/>
-      <c r="W4" s="202"/>
-    </row>
-    <row r="5" spans="2:23" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="208"/>
-      <c r="C5" s="209"/>
-      <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="209"/>
-      <c r="G5" s="209"/>
+      <c r="W4" s="161"/>
+    </row>
+    <row r="5" spans="2:23" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="167"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
       <c r="H5" s="86"/>
       <c r="I5" s="86"/>
       <c r="J5" s="86"/>
@@ -1475,87 +1478,87 @@
       <c r="T5" s="86"/>
       <c r="U5" s="86"/>
       <c r="V5" s="86"/>
-      <c r="W5" s="203"/>
-    </row>
-    <row r="6" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W5" s="162"/>
+    </row>
+    <row r="6" spans="2:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="191">
+      <c r="D6" s="175">
         <v>1</v>
       </c>
-      <c r="E6" s="192"/>
-      <c r="F6" s="192"/>
-      <c r="G6" s="193"/>
-      <c r="H6" s="192">
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="176">
         <v>2</v>
       </c>
-      <c r="I6" s="192"/>
-      <c r="J6" s="192"/>
-      <c r="K6" s="192"/>
-      <c r="L6" s="191">
+      <c r="I6" s="176"/>
+      <c r="J6" s="176"/>
+      <c r="K6" s="176"/>
+      <c r="L6" s="175">
         <v>3</v>
       </c>
-      <c r="M6" s="192"/>
-      <c r="N6" s="192"/>
-      <c r="O6" s="193"/>
-      <c r="P6" s="192">
+      <c r="M6" s="176"/>
+      <c r="N6" s="176"/>
+      <c r="O6" s="177"/>
+      <c r="P6" s="176">
         <v>4</v>
       </c>
-      <c r="Q6" s="192"/>
-      <c r="R6" s="192"/>
-      <c r="S6" s="192"/>
-      <c r="T6" s="198">
+      <c r="Q6" s="176"/>
+      <c r="R6" s="176"/>
+      <c r="S6" s="176"/>
+      <c r="T6" s="178">
         <v>5</v>
       </c>
-      <c r="U6" s="199"/>
-      <c r="V6" s="199"/>
-      <c r="W6" s="200"/>
-    </row>
-    <row r="7" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U6" s="179"/>
+      <c r="V6" s="179"/>
+      <c r="W6" s="180"/>
+    </row>
+    <row r="7" spans="2:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="191" t="s">
+      <c r="D7" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="191" t="s">
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="192"/>
-      <c r="J7" s="192"/>
-      <c r="K7" s="193"/>
-      <c r="L7" s="191" t="s">
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="192"/>
-      <c r="N7" s="192"/>
-      <c r="O7" s="193"/>
-      <c r="P7" s="191" t="s">
+      <c r="M7" s="176"/>
+      <c r="N7" s="176"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="192"/>
-      <c r="R7" s="192"/>
-      <c r="S7" s="193"/>
-      <c r="T7" s="198" t="s">
+      <c r="Q7" s="176"/>
+      <c r="R7" s="176"/>
+      <c r="S7" s="177"/>
+      <c r="T7" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="U7" s="199"/>
-      <c r="V7" s="199"/>
-      <c r="W7" s="200"/>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="177" t="s">
+      <c r="U7" s="179"/>
+      <c r="V7" s="179"/>
+      <c r="W7" s="180"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B8" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="182" t="s">
+      <c r="C8" s="190" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="142"/>
@@ -1579,9 +1582,9 @@
       <c r="V8" s="4"/>
       <c r="W8" s="5"/>
     </row>
-    <row r="9" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="178"/>
-      <c r="C9" s="183"/>
+    <row r="9" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="186"/>
+      <c r="C9" s="191"/>
       <c r="D9" s="153"/>
       <c r="E9" s="154"/>
       <c r="F9" s="10"/>
@@ -1603,9 +1606,9 @@
       <c r="V9" s="7"/>
       <c r="W9" s="8"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="178"/>
-      <c r="C10" s="182" t="s">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B10" s="186"/>
+      <c r="C10" s="190" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="102"/>
@@ -1629,9 +1632,9 @@
       <c r="V10" s="88"/>
       <c r="W10" s="89"/>
     </row>
-    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="179"/>
-      <c r="C11" s="183"/>
+    <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="187"/>
+      <c r="C11" s="191"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
       <c r="F11" s="154"/>
@@ -1653,11 +1656,11 @@
       <c r="V11" s="7"/>
       <c r="W11" s="8"/>
     </row>
-    <row r="12" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="184" t="s">
+    <row r="12" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="180" t="s">
+      <c r="C12" s="188" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="15"/>
@@ -1681,14 +1684,14 @@
       <c r="V12" s="11"/>
       <c r="W12" s="12"/>
     </row>
-    <row r="13" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="185"/>
-      <c r="C13" s="181"/>
+    <row r="13" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="193"/>
+      <c r="C13" s="189"/>
       <c r="D13" s="21"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
+      <c r="H13" s="214"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
       <c r="K13" s="25"/>
@@ -1705,9 +1708,9 @@
       <c r="V13" s="22"/>
       <c r="W13" s="23"/>
     </row>
-    <row r="14" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="185"/>
-      <c r="C14" s="180" t="s">
+    <row r="14" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="193"/>
+      <c r="C14" s="188" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="15"/>
@@ -1731,15 +1734,15 @@
       <c r="V14" s="11"/>
       <c r="W14" s="12"/>
     </row>
-    <row r="15" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="186"/>
-      <c r="C15" s="181"/>
+    <row r="15" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="194"/>
+      <c r="C15" s="189"/>
       <c r="D15" s="20"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
-      <c r="I15" s="16"/>
+      <c r="I15" s="213"/>
       <c r="J15" s="16"/>
       <c r="K15" s="19"/>
       <c r="L15" s="20"/>
@@ -1755,11 +1758,11 @@
       <c r="V15" s="16"/>
       <c r="W15" s="17"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="187" t="s">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B16" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="189" t="s">
+      <c r="C16" s="197" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="26"/>
@@ -1783,15 +1786,15 @@
       <c r="V16" s="27"/>
       <c r="W16" s="28"/>
     </row>
-    <row r="17" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="188"/>
-      <c r="C17" s="190"/>
+    <row r="17" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="196"/>
+      <c r="C17" s="198"/>
       <c r="D17" s="31"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="32"/>
+      <c r="H17" s="214"/>
+      <c r="I17" s="154"/>
       <c r="J17" s="32"/>
       <c r="K17" s="35"/>
       <c r="L17" s="31"/>
@@ -1807,11 +1810,11 @@
       <c r="V17" s="32"/>
       <c r="W17" s="33"/>
     </row>
-    <row r="18" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="174" t="s">
+    <row r="18" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="170" t="s">
+      <c r="C18" s="181" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="36"/>
@@ -1835,9 +1838,9 @@
       <c r="V18" s="37"/>
       <c r="W18" s="40"/>
     </row>
-    <row r="19" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="175"/>
-      <c r="C19" s="171"/>
+    <row r="19" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="173"/>
+      <c r="C19" s="182"/>
       <c r="D19" s="41"/>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -1859,9 +1862,9 @@
       <c r="V19" s="42"/>
       <c r="W19" s="45"/>
     </row>
-    <row r="20" spans="2:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="175"/>
-      <c r="C20" s="172" t="s">
+    <row r="20" spans="2:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="173"/>
+      <c r="C20" s="183" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="46"/>
@@ -1872,7 +1875,7 @@
       <c r="I20" s="47"/>
       <c r="J20" s="113"/>
       <c r="K20" s="150"/>
-      <c r="L20" s="194"/>
+      <c r="L20" s="156"/>
       <c r="M20" s="113"/>
       <c r="N20" s="113"/>
       <c r="O20" s="116"/>
@@ -1885,9 +1888,9 @@
       <c r="V20" s="47"/>
       <c r="W20" s="48"/>
     </row>
-    <row r="21" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="175"/>
-      <c r="C21" s="173"/>
+    <row r="21" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="173"/>
+      <c r="C21" s="184"/>
       <c r="D21" s="51"/>
       <c r="E21" s="52"/>
       <c r="F21" s="52"/>
@@ -1909,9 +1912,9 @@
       <c r="V21" s="52"/>
       <c r="W21" s="53"/>
     </row>
-    <row r="22" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="175"/>
-      <c r="C22" s="170" t="s">
+    <row r="22" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="173"/>
+      <c r="C22" s="181" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="36"/>
@@ -1935,9 +1938,9 @@
       <c r="V22" s="57"/>
       <c r="W22" s="90"/>
     </row>
-    <row r="23" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="175"/>
-      <c r="C23" s="171"/>
+    <row r="23" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="173"/>
+      <c r="C23" s="182"/>
       <c r="D23" s="41"/>
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
@@ -1959,9 +1962,9 @@
       <c r="V23" s="42"/>
       <c r="W23" s="45"/>
     </row>
-    <row r="24" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="175"/>
-      <c r="C24" s="170" t="s">
+    <row r="24" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="173"/>
+      <c r="C24" s="181" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="46"/>
@@ -1985,9 +1988,9 @@
       <c r="V24" s="47"/>
       <c r="W24" s="48"/>
     </row>
-    <row r="25" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="175"/>
-      <c r="C25" s="171"/>
+    <row r="25" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="173"/>
+      <c r="C25" s="182"/>
       <c r="D25" s="51"/>
       <c r="E25" s="52"/>
       <c r="F25" s="52"/>
@@ -2009,9 +2012,9 @@
       <c r="V25" s="52"/>
       <c r="W25" s="53"/>
     </row>
-    <row r="26" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="175"/>
-      <c r="C26" s="170" t="s">
+    <row r="26" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="173"/>
+      <c r="C26" s="181" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="36"/>
@@ -2035,9 +2038,9 @@
       <c r="V26" s="57"/>
       <c r="W26" s="90"/>
     </row>
-    <row r="27" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="176"/>
-      <c r="C27" s="171"/>
+    <row r="27" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="174"/>
+      <c r="C27" s="182"/>
       <c r="D27" s="41"/>
       <c r="E27" s="42"/>
       <c r="F27" s="42"/>
@@ -2059,11 +2062,11 @@
       <c r="V27" s="52"/>
       <c r="W27" s="53"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="160" t="s">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B28" s="203" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="163" t="s">
+      <c r="C28" s="206" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="58"/>
@@ -2073,7 +2076,7 @@
       <c r="H28" s="61"/>
       <c r="I28" s="59"/>
       <c r="J28" s="59"/>
-      <c r="K28" s="197"/>
+      <c r="K28" s="159"/>
       <c r="L28" s="142"/>
       <c r="M28" s="63"/>
       <c r="N28" s="59"/>
@@ -2087,9 +2090,9 @@
       <c r="V28" s="59"/>
       <c r="W28" s="60"/>
     </row>
-    <row r="29" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="161"/>
-      <c r="C29" s="164"/>
+    <row r="29" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="204"/>
+      <c r="C29" s="207"/>
       <c r="D29" s="64"/>
       <c r="E29" s="65"/>
       <c r="F29" s="65"/>
@@ -2111,9 +2114,9 @@
       <c r="V29" s="65"/>
       <c r="W29" s="66"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="161"/>
-      <c r="C30" s="163" t="s">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B30" s="204"/>
+      <c r="C30" s="206" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="58"/>
@@ -2127,8 +2130,8 @@
       <c r="L30" s="58"/>
       <c r="M30" s="59"/>
       <c r="N30" s="63"/>
-      <c r="O30" s="195"/>
-      <c r="P30" s="196"/>
+      <c r="O30" s="157"/>
+      <c r="P30" s="158"/>
       <c r="Q30" s="63"/>
       <c r="R30" s="143"/>
       <c r="S30" s="152"/>
@@ -2137,9 +2140,9 @@
       <c r="V30" s="59"/>
       <c r="W30" s="60"/>
     </row>
-    <row r="31" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="162"/>
-      <c r="C31" s="164"/>
+    <row r="31" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="205"/>
+      <c r="C31" s="207"/>
       <c r="D31" s="69"/>
       <c r="E31" s="70"/>
       <c r="F31" s="70"/>
@@ -2161,11 +2164,11 @@
       <c r="V31" s="70"/>
       <c r="W31" s="71"/>
     </row>
-    <row r="32" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="167" t="s">
+    <row r="32" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="165" t="s">
+      <c r="C32" s="208" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="127"/>
@@ -2189,15 +2192,15 @@
       <c r="V32" s="143"/>
       <c r="W32" s="124"/>
     </row>
-    <row r="33" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="168"/>
-      <c r="C33" s="166"/>
+    <row r="33" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="211"/>
+      <c r="C33" s="209"/>
       <c r="D33" s="132"/>
       <c r="E33" s="128"/>
       <c r="F33" s="154"/>
       <c r="G33" s="155"/>
       <c r="H33" s="130"/>
-      <c r="I33" s="128"/>
+      <c r="I33" s="154"/>
       <c r="J33" s="128"/>
       <c r="K33" s="131"/>
       <c r="L33" s="132"/>
@@ -2213,9 +2216,9 @@
       <c r="V33" s="128"/>
       <c r="W33" s="129"/>
     </row>
-    <row r="34" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="168"/>
-      <c r="C34" s="165" t="s">
+    <row r="34" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="211"/>
+      <c r="C34" s="208" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="136"/>
@@ -2239,9 +2242,9 @@
       <c r="V34" s="147"/>
       <c r="W34" s="134"/>
     </row>
-    <row r="35" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="169"/>
-      <c r="C35" s="166"/>
+    <row r="35" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="212"/>
+      <c r="C35" s="209"/>
       <c r="D35" s="141"/>
       <c r="E35" s="137"/>
       <c r="F35" s="137"/>
@@ -2263,9 +2266,9 @@
       <c r="V35" s="137"/>
       <c r="W35" s="138"/>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B36" s="156"/>
-      <c r="C36" s="158" t="s">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B36" s="199"/>
+      <c r="C36" s="201" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="74"/>
@@ -2289,9 +2292,9 @@
       <c r="V36" s="63"/>
       <c r="W36" s="151"/>
     </row>
-    <row r="37" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="157"/>
-      <c r="C37" s="159"/>
+    <row r="37" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="200"/>
+      <c r="C37" s="202"/>
       <c r="D37" s="79"/>
       <c r="E37" s="80"/>
       <c r="F37" s="80"/>
@@ -2315,6 +2318,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
     <mergeCell ref="B2:G5"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="Q4:S4"/>
@@ -2323,12 +2345,6 @@
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="B8:B11"/>
@@ -2337,19 +2353,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Docs/ZeitPlan.xlsx
+++ b/Docs/ZeitPlan.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96C569B-3A16-4AA3-9F52-A8A2316CB186}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -121,8 +120,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +163,12 @@
       <color theme="1"/>
       <name val="Britannic Bold"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -748,7 +753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -932,41 +937,76 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -977,19 +1017,40 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1013,12 +1074,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1034,56 +1089,8 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1363,30 +1370,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="43" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="43" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:23" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="163" t="s">
+    <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:23" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
       <c r="H2" s="84"/>
       <c r="I2" s="84"/>
       <c r="J2" s="84"/>
@@ -1404,13 +1411,13 @@
       <c r="V2" s="84"/>
       <c r="W2" s="160"/>
     </row>
-    <row r="3" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="165"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
+    <row r="3" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="193"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
       <c r="H3" s="85"/>
       <c r="I3" s="85"/>
       <c r="J3" s="85"/>
@@ -1420,23 +1427,23 @@
       <c r="N3" s="85"/>
       <c r="O3" s="85"/>
       <c r="P3" s="93"/>
-      <c r="Q3" s="169" t="s">
+      <c r="Q3" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="170"/>
-      <c r="S3" s="171"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="199"/>
       <c r="T3" s="85"/>
       <c r="U3" s="85"/>
       <c r="V3" s="85"/>
       <c r="W3" s="161"/>
     </row>
-    <row r="4" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="165"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
+    <row r="4" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="193"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
       <c r="H4" s="85"/>
       <c r="I4" s="85"/>
       <c r="J4" s="85"/>
@@ -1446,23 +1453,23 @@
       <c r="N4" s="85"/>
       <c r="O4" s="85"/>
       <c r="P4" s="92"/>
-      <c r="Q4" s="169" t="s">
+      <c r="Q4" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="170"/>
-      <c r="S4" s="171"/>
+      <c r="R4" s="198"/>
+      <c r="S4" s="199"/>
       <c r="T4" s="85"/>
       <c r="U4" s="85"/>
       <c r="V4" s="85"/>
       <c r="W4" s="161"/>
     </row>
-    <row r="5" spans="2:23" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="167"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168"/>
+    <row r="5" spans="2:23" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="195"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="196"/>
       <c r="H5" s="86"/>
       <c r="I5" s="86"/>
       <c r="J5" s="86"/>
@@ -1480,85 +1487,85 @@
       <c r="V5" s="86"/>
       <c r="W5" s="162"/>
     </row>
-    <row r="6" spans="2:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="175">
+      <c r="D6" s="188">
         <v>1</v>
       </c>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="176">
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="189">
         <v>2</v>
       </c>
-      <c r="I6" s="176"/>
-      <c r="J6" s="176"/>
-      <c r="K6" s="176"/>
-      <c r="L6" s="175">
+      <c r="I6" s="189"/>
+      <c r="J6" s="189"/>
+      <c r="K6" s="189"/>
+      <c r="L6" s="188">
         <v>3</v>
       </c>
-      <c r="M6" s="176"/>
-      <c r="N6" s="176"/>
-      <c r="O6" s="177"/>
-      <c r="P6" s="176">
+      <c r="M6" s="189"/>
+      <c r="N6" s="189"/>
+      <c r="O6" s="190"/>
+      <c r="P6" s="189">
         <v>4</v>
       </c>
-      <c r="Q6" s="176"/>
-      <c r="R6" s="176"/>
-      <c r="S6" s="176"/>
-      <c r="T6" s="178">
+      <c r="Q6" s="189"/>
+      <c r="R6" s="189"/>
+      <c r="S6" s="189"/>
+      <c r="T6" s="185">
         <v>5</v>
       </c>
-      <c r="U6" s="179"/>
-      <c r="V6" s="179"/>
-      <c r="W6" s="180"/>
-    </row>
-    <row r="7" spans="2:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U6" s="186"/>
+      <c r="V6" s="186"/>
+      <c r="W6" s="187"/>
+    </row>
+    <row r="7" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="175" t="s">
+      <c r="D7" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="175" t="s">
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="176"/>
-      <c r="J7" s="176"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="175" t="s">
+      <c r="I7" s="189"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="190"/>
+      <c r="L7" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="176"/>
-      <c r="N7" s="176"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="175" t="s">
+      <c r="M7" s="189"/>
+      <c r="N7" s="189"/>
+      <c r="O7" s="190"/>
+      <c r="P7" s="188" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="176"/>
-      <c r="R7" s="176"/>
-      <c r="S7" s="177"/>
-      <c r="T7" s="178" t="s">
+      <c r="Q7" s="189"/>
+      <c r="R7" s="189"/>
+      <c r="S7" s="190"/>
+      <c r="T7" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="U7" s="179"/>
-      <c r="V7" s="179"/>
-      <c r="W7" s="180"/>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" s="185" t="s">
+      <c r="U7" s="186"/>
+      <c r="V7" s="186"/>
+      <c r="W7" s="187"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C8" s="183" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="142"/>
@@ -1582,9 +1589,9 @@
       <c r="V8" s="4"/>
       <c r="W8" s="5"/>
     </row>
-    <row r="9" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="186"/>
-      <c r="C9" s="191"/>
+    <row r="9" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="206"/>
+      <c r="C9" s="184"/>
       <c r="D9" s="153"/>
       <c r="E9" s="154"/>
       <c r="F9" s="10"/>
@@ -1606,9 +1613,9 @@
       <c r="V9" s="7"/>
       <c r="W9" s="8"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="186"/>
-      <c r="C10" s="190" t="s">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="206"/>
+      <c r="C10" s="183" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="102"/>
@@ -1632,9 +1639,9 @@
       <c r="V10" s="88"/>
       <c r="W10" s="89"/>
     </row>
-    <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="187"/>
-      <c r="C11" s="191"/>
+    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="207"/>
+      <c r="C11" s="184"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
       <c r="F11" s="154"/>
@@ -1656,11 +1663,11 @@
       <c r="V11" s="7"/>
       <c r="W11" s="8"/>
     </row>
-    <row r="12" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="192" t="s">
+    <row r="12" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="188" t="s">
+      <c r="C12" s="208" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="15"/>
@@ -1684,14 +1691,14 @@
       <c r="V12" s="11"/>
       <c r="W12" s="12"/>
     </row>
-    <row r="13" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="193"/>
-      <c r="C13" s="189"/>
+    <row r="13" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="211"/>
+      <c r="C13" s="209"/>
       <c r="D13" s="21"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="214"/>
+      <c r="H13" s="164"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
       <c r="K13" s="25"/>
@@ -1708,9 +1715,9 @@
       <c r="V13" s="22"/>
       <c r="W13" s="23"/>
     </row>
-    <row r="14" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="193"/>
-      <c r="C14" s="188" t="s">
+    <row r="14" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="211"/>
+      <c r="C14" s="208" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="15"/>
@@ -1734,15 +1741,15 @@
       <c r="V14" s="11"/>
       <c r="W14" s="12"/>
     </row>
-    <row r="15" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="194"/>
-      <c r="C15" s="189"/>
+    <row r="15" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="212"/>
+      <c r="C15" s="209"/>
       <c r="D15" s="20"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
-      <c r="I15" s="213"/>
+      <c r="I15" s="163"/>
       <c r="J15" s="16"/>
       <c r="K15" s="19"/>
       <c r="L15" s="20"/>
@@ -1758,11 +1765,11 @@
       <c r="V15" s="16"/>
       <c r="W15" s="17"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="195" t="s">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="197" t="s">
+      <c r="C16" s="179" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="26"/>
@@ -1786,14 +1793,14 @@
       <c r="V16" s="27"/>
       <c r="W16" s="28"/>
     </row>
-    <row r="17" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="196"/>
-      <c r="C17" s="198"/>
+    <row r="17" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="214"/>
+      <c r="C17" s="180"/>
       <c r="D17" s="31"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
-      <c r="H17" s="214"/>
+      <c r="H17" s="164"/>
       <c r="I17" s="154"/>
       <c r="J17" s="32"/>
       <c r="K17" s="35"/>
@@ -1810,8 +1817,8 @@
       <c r="V17" s="32"/>
       <c r="W17" s="33"/>
     </row>
-    <row r="18" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="172" t="s">
+    <row r="18" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="200" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="181" t="s">
@@ -1838,8 +1845,8 @@
       <c r="V18" s="37"/>
       <c r="W18" s="40"/>
     </row>
-    <row r="19" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="173"/>
+    <row r="19" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="201"/>
       <c r="C19" s="182"/>
       <c r="D19" s="41"/>
       <c r="E19" s="42"/>
@@ -1849,7 +1856,7 @@
       <c r="I19" s="42"/>
       <c r="J19" s="108"/>
       <c r="K19" s="109"/>
-      <c r="L19" s="110"/>
+      <c r="L19" s="153"/>
       <c r="M19" s="108"/>
       <c r="N19" s="108"/>
       <c r="O19" s="111"/>
@@ -1862,9 +1869,9 @@
       <c r="V19" s="42"/>
       <c r="W19" s="45"/>
     </row>
-    <row r="20" spans="2:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="173"/>
-      <c r="C20" s="183" t="s">
+    <row r="20" spans="2:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="201"/>
+      <c r="C20" s="203" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="46"/>
@@ -1888,17 +1895,17 @@
       <c r="V20" s="47"/>
       <c r="W20" s="48"/>
     </row>
-    <row r="21" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="173"/>
-      <c r="C21" s="184"/>
+    <row r="21" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="201"/>
+      <c r="C21" s="204"/>
       <c r="D21" s="51"/>
       <c r="E21" s="52"/>
       <c r="F21" s="52"/>
       <c r="G21" s="53"/>
       <c r="H21" s="55"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="119"/>
+      <c r="I21" s="215"/>
+      <c r="J21" s="215"/>
+      <c r="K21" s="216"/>
       <c r="L21" s="120"/>
       <c r="M21" s="118"/>
       <c r="N21" s="118"/>
@@ -1912,8 +1919,8 @@
       <c r="V21" s="52"/>
       <c r="W21" s="53"/>
     </row>
-    <row r="22" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="173"/>
+    <row r="22" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="201"/>
       <c r="C22" s="181" t="s">
         <v>29</v>
       </c>
@@ -1938,8 +1945,8 @@
       <c r="V22" s="57"/>
       <c r="W22" s="90"/>
     </row>
-    <row r="23" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="173"/>
+    <row r="23" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="201"/>
       <c r="C23" s="182"/>
       <c r="D23" s="41"/>
       <c r="E23" s="42"/>
@@ -1962,8 +1969,8 @@
       <c r="V23" s="42"/>
       <c r="W23" s="45"/>
     </row>
-    <row r="24" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="173"/>
+    <row r="24" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="201"/>
       <c r="C24" s="181" t="s">
         <v>30</v>
       </c>
@@ -1988,8 +1995,8 @@
       <c r="V24" s="47"/>
       <c r="W24" s="48"/>
     </row>
-    <row r="25" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="173"/>
+    <row r="25" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="201"/>
       <c r="C25" s="182"/>
       <c r="D25" s="51"/>
       <c r="E25" s="52"/>
@@ -2012,8 +2019,8 @@
       <c r="V25" s="52"/>
       <c r="W25" s="53"/>
     </row>
-    <row r="26" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="173"/>
+    <row r="26" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="201"/>
       <c r="C26" s="181" t="s">
         <v>31</v>
       </c>
@@ -2038,8 +2045,8 @@
       <c r="V26" s="57"/>
       <c r="W26" s="90"/>
     </row>
-    <row r="27" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="174"/>
+    <row r="27" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="202"/>
       <c r="C27" s="182"/>
       <c r="D27" s="41"/>
       <c r="E27" s="42"/>
@@ -2062,11 +2069,11 @@
       <c r="V27" s="52"/>
       <c r="W27" s="53"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B28" s="203" t="s">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="206" t="s">
+      <c r="C28" s="172" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="58"/>
@@ -2090,9 +2097,9 @@
       <c r="V28" s="59"/>
       <c r="W28" s="60"/>
     </row>
-    <row r="29" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="204"/>
-      <c r="C29" s="207"/>
+    <row r="29" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="170"/>
+      <c r="C29" s="173"/>
       <c r="D29" s="64"/>
       <c r="E29" s="65"/>
       <c r="F29" s="65"/>
@@ -2114,9 +2121,9 @@
       <c r="V29" s="65"/>
       <c r="W29" s="66"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="204"/>
-      <c r="C30" s="206" t="s">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B30" s="170"/>
+      <c r="C30" s="172" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="58"/>
@@ -2140,9 +2147,9 @@
       <c r="V30" s="59"/>
       <c r="W30" s="60"/>
     </row>
-    <row r="31" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="205"/>
-      <c r="C31" s="207"/>
+    <row r="31" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="171"/>
+      <c r="C31" s="173"/>
       <c r="D31" s="69"/>
       <c r="E31" s="70"/>
       <c r="F31" s="70"/>
@@ -2164,11 +2171,11 @@
       <c r="V31" s="70"/>
       <c r="W31" s="71"/>
     </row>
-    <row r="32" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="210" t="s">
+    <row r="32" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="208" t="s">
+      <c r="C32" s="174" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="127"/>
@@ -2192,9 +2199,9 @@
       <c r="V32" s="143"/>
       <c r="W32" s="124"/>
     </row>
-    <row r="33" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="211"/>
-      <c r="C33" s="209"/>
+    <row r="33" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="177"/>
+      <c r="C33" s="175"/>
       <c r="D33" s="132"/>
       <c r="E33" s="128"/>
       <c r="F33" s="154"/>
@@ -2216,9 +2223,9 @@
       <c r="V33" s="128"/>
       <c r="W33" s="129"/>
     </row>
-    <row r="34" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="211"/>
-      <c r="C34" s="208" t="s">
+    <row r="34" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="177"/>
+      <c r="C34" s="174" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="136"/>
@@ -2242,9 +2249,9 @@
       <c r="V34" s="147"/>
       <c r="W34" s="134"/>
     </row>
-    <row r="35" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="212"/>
-      <c r="C35" s="209"/>
+    <row r="35" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="178"/>
+      <c r="C35" s="175"/>
       <c r="D35" s="141"/>
       <c r="E35" s="137"/>
       <c r="F35" s="137"/>
@@ -2266,9 +2273,9 @@
       <c r="V35" s="137"/>
       <c r="W35" s="138"/>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B36" s="199"/>
-      <c r="C36" s="201" t="s">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B36" s="165"/>
+      <c r="C36" s="167" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="74"/>
@@ -2292,9 +2299,9 @@
       <c r="V36" s="63"/>
       <c r="W36" s="151"/>
     </row>
-    <row r="37" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="200"/>
-      <c r="C37" s="202"/>
+    <row r="37" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="166"/>
+      <c r="C37" s="168"/>
       <c r="D37" s="79"/>
       <c r="E37" s="80"/>
       <c r="F37" s="80"/>
@@ -2318,25 +2325,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
     <mergeCell ref="B2:G5"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="Q4:S4"/>
@@ -2353,6 +2341,25 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Docs/ZeitPlan.xlsx
+++ b/Docs/ZeitPlan.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C91935-6F97-4C23-8898-DED7DCB01ADD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -120,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,7 +172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +257,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="41">
     <border>
@@ -753,7 +760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -878,7 +885,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
@@ -939,6 +945,116 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -981,116 +1097,14 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1370,11 +1384,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB24" sqref="AB24"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,14 +1400,14 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
       <c r="H2" s="84"/>
       <c r="I2" s="84"/>
       <c r="J2" s="84"/>
@@ -1409,15 +1423,15 @@
       <c r="T2" s="84"/>
       <c r="U2" s="84"/>
       <c r="V2" s="84"/>
-      <c r="W2" s="160"/>
+      <c r="W2" s="159"/>
     </row>
     <row r="3" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="193"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
       <c r="H3" s="85"/>
       <c r="I3" s="85"/>
       <c r="J3" s="85"/>
@@ -1427,23 +1441,23 @@
       <c r="N3" s="85"/>
       <c r="O3" s="85"/>
       <c r="P3" s="93"/>
-      <c r="Q3" s="197" t="s">
+      <c r="Q3" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="198"/>
-      <c r="S3" s="199"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="174"/>
       <c r="T3" s="85"/>
       <c r="U3" s="85"/>
       <c r="V3" s="85"/>
-      <c r="W3" s="161"/>
+      <c r="W3" s="160"/>
     </row>
     <row r="4" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="193"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="194"/>
+      <c r="B4" s="168"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
       <c r="H4" s="85"/>
       <c r="I4" s="85"/>
       <c r="J4" s="85"/>
@@ -1453,23 +1467,23 @@
       <c r="N4" s="85"/>
       <c r="O4" s="85"/>
       <c r="P4" s="92"/>
-      <c r="Q4" s="197" t="s">
+      <c r="Q4" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="198"/>
-      <c r="S4" s="199"/>
+      <c r="R4" s="173"/>
+      <c r="S4" s="174"/>
       <c r="T4" s="85"/>
       <c r="U4" s="85"/>
       <c r="V4" s="85"/>
-      <c r="W4" s="161"/>
+      <c r="W4" s="160"/>
     </row>
     <row r="5" spans="2:23" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="195"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
-      <c r="G5" s="196"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
       <c r="H5" s="86"/>
       <c r="I5" s="86"/>
       <c r="J5" s="86"/>
@@ -1485,43 +1499,43 @@
       <c r="T5" s="86"/>
       <c r="U5" s="86"/>
       <c r="V5" s="86"/>
-      <c r="W5" s="162"/>
+      <c r="W5" s="161"/>
     </row>
     <row r="6" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="188">
+      <c r="D6" s="178">
         <v>1</v>
       </c>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="190"/>
-      <c r="H6" s="189">
+      <c r="E6" s="179"/>
+      <c r="F6" s="179"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="179">
         <v>2</v>
       </c>
-      <c r="I6" s="189"/>
-      <c r="J6" s="189"/>
-      <c r="K6" s="189"/>
-      <c r="L6" s="188">
+      <c r="I6" s="179"/>
+      <c r="J6" s="179"/>
+      <c r="K6" s="179"/>
+      <c r="L6" s="178">
         <v>3</v>
       </c>
-      <c r="M6" s="189"/>
-      <c r="N6" s="189"/>
-      <c r="O6" s="190"/>
-      <c r="P6" s="189">
+      <c r="M6" s="179"/>
+      <c r="N6" s="179"/>
+      <c r="O6" s="180"/>
+      <c r="P6" s="179">
         <v>4</v>
       </c>
-      <c r="Q6" s="189"/>
-      <c r="R6" s="189"/>
-      <c r="S6" s="189"/>
-      <c r="T6" s="185">
+      <c r="Q6" s="179"/>
+      <c r="R6" s="179"/>
+      <c r="S6" s="179"/>
+      <c r="T6" s="197">
         <v>5</v>
       </c>
-      <c r="U6" s="186"/>
-      <c r="V6" s="186"/>
-      <c r="W6" s="187"/>
+      <c r="U6" s="198"/>
+      <c r="V6" s="198"/>
+      <c r="W6" s="199"/>
     </row>
     <row r="7" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
@@ -1530,46 +1544,46 @@
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="188" t="s">
+      <c r="D7" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="190"/>
-      <c r="H7" s="188" t="s">
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="189"/>
-      <c r="J7" s="189"/>
-      <c r="K7" s="190"/>
-      <c r="L7" s="188" t="s">
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="189"/>
-      <c r="N7" s="189"/>
-      <c r="O7" s="190"/>
-      <c r="P7" s="188" t="s">
+      <c r="M7" s="179"/>
+      <c r="N7" s="179"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="189"/>
-      <c r="R7" s="189"/>
-      <c r="S7" s="190"/>
-      <c r="T7" s="185" t="s">
+      <c r="Q7" s="179"/>
+      <c r="R7" s="179"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="197" t="s">
         <v>22</v>
       </c>
-      <c r="U7" s="186"/>
-      <c r="V7" s="186"/>
-      <c r="W7" s="187"/>
+      <c r="U7" s="198"/>
+      <c r="V7" s="198"/>
+      <c r="W7" s="199"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="205" t="s">
+      <c r="B8" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="183" t="s">
+      <c r="C8" s="190" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="142"/>
-      <c r="E8" s="143"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="142"/>
       <c r="F8" s="95"/>
       <c r="G8" s="96"/>
       <c r="H8" s="97"/>
@@ -1590,10 +1604,10 @@
       <c r="W8" s="5"/>
     </row>
     <row r="9" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="206"/>
-      <c r="C9" s="184"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="10"/>
       <c r="G9" s="99"/>
       <c r="H9" s="100"/>
@@ -1614,14 +1628,14 @@
       <c r="W9" s="8"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="206"/>
-      <c r="C10" s="183" t="s">
+      <c r="B10" s="186"/>
+      <c r="C10" s="190" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="102"/>
       <c r="E10" s="103"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="145"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="144"/>
       <c r="H10" s="105"/>
       <c r="I10" s="103"/>
       <c r="J10" s="103"/>
@@ -1640,12 +1654,12 @@
       <c r="W10" s="89"/>
     </row>
     <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="207"/>
-      <c r="C11" s="184"/>
+      <c r="B11" s="187"/>
+      <c r="C11" s="191"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="155"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="154"/>
       <c r="H11" s="100"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -1664,17 +1678,17 @@
       <c r="W11" s="8"/>
     </row>
     <row r="12" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="210" t="s">
+      <c r="B12" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="208" t="s">
+      <c r="C12" s="188" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="146"/>
+      <c r="H12" s="145"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="14"/>
@@ -1692,13 +1706,13 @@
       <c r="W12" s="12"/>
     </row>
     <row r="13" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="211"/>
-      <c r="C13" s="209"/>
+      <c r="B13" s="193"/>
+      <c r="C13" s="189"/>
       <c r="D13" s="21"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="164"/>
+      <c r="H13" s="163"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
       <c r="K13" s="25"/>
@@ -1716,8 +1730,8 @@
       <c r="W13" s="23"/>
     </row>
     <row r="14" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="211"/>
-      <c r="C14" s="208" t="s">
+      <c r="B14" s="193"/>
+      <c r="C14" s="188" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="15"/>
@@ -1725,7 +1739,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="147"/>
+      <c r="I14" s="146"/>
       <c r="J14" s="11"/>
       <c r="K14" s="14"/>
       <c r="L14" s="15"/>
@@ -1742,14 +1756,14 @@
       <c r="W14" s="12"/>
     </row>
     <row r="15" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="212"/>
-      <c r="C15" s="209"/>
+      <c r="B15" s="194"/>
+      <c r="C15" s="189"/>
       <c r="D15" s="20"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
-      <c r="I15" s="163"/>
+      <c r="I15" s="162"/>
       <c r="J15" s="16"/>
       <c r="K15" s="19"/>
       <c r="L15" s="20"/>
@@ -1766,18 +1780,18 @@
       <c r="W15" s="17"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="213" t="s">
+      <c r="B16" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="179" t="s">
+      <c r="C16" s="200" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="28"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="143"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="142"/>
       <c r="J16" s="27"/>
       <c r="K16" s="30"/>
       <c r="L16" s="26"/>
@@ -1794,14 +1808,14 @@
       <c r="W16" s="28"/>
     </row>
     <row r="17" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="214"/>
-      <c r="C17" s="180"/>
+      <c r="B17" s="196"/>
+      <c r="C17" s="201"/>
       <c r="D17" s="31"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="154"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="153"/>
       <c r="J17" s="32"/>
       <c r="K17" s="35"/>
       <c r="L17" s="31"/>
@@ -1818,7 +1832,7 @@
       <c r="W17" s="33"/>
     </row>
     <row r="18" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="200" t="s">
+      <c r="B18" s="175" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="181" t="s">
@@ -1830,7 +1844,7 @@
       <c r="G18" s="40"/>
       <c r="H18" s="38"/>
       <c r="I18" s="37"/>
-      <c r="J18" s="143"/>
+      <c r="J18" s="142"/>
       <c r="K18" s="91"/>
       <c r="L18" s="56"/>
       <c r="M18" s="57"/>
@@ -1846,7 +1860,7 @@
       <c r="W18" s="40"/>
     </row>
     <row r="19" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="201"/>
+      <c r="B19" s="176"/>
       <c r="C19" s="182"/>
       <c r="D19" s="41"/>
       <c r="E19" s="42"/>
@@ -1856,11 +1870,11 @@
       <c r="I19" s="42"/>
       <c r="J19" s="108"/>
       <c r="K19" s="109"/>
-      <c r="L19" s="153"/>
+      <c r="L19" s="152"/>
       <c r="M19" s="108"/>
       <c r="N19" s="108"/>
-      <c r="O19" s="111"/>
-      <c r="P19" s="112"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="111"/>
       <c r="Q19" s="108"/>
       <c r="R19" s="108"/>
       <c r="S19" s="44"/>
@@ -1870,8 +1884,8 @@
       <c r="W19" s="45"/>
     </row>
     <row r="20" spans="2:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="201"/>
-      <c r="C20" s="203" t="s">
+      <c r="B20" s="176"/>
+      <c r="C20" s="183" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="46"/>
@@ -1880,15 +1894,15 @@
       <c r="G20" s="48"/>
       <c r="H20" s="50"/>
       <c r="I20" s="47"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="150"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="117"/>
-      <c r="Q20" s="113"/>
-      <c r="R20" s="113"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="149"/>
+      <c r="L20" s="155"/>
+      <c r="M20" s="112"/>
+      <c r="N20" s="112"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="112"/>
+      <c r="R20" s="112"/>
       <c r="S20" s="49"/>
       <c r="T20" s="46"/>
       <c r="U20" s="47"/>
@@ -1896,23 +1910,23 @@
       <c r="W20" s="48"/>
     </row>
     <row r="21" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="201"/>
-      <c r="C21" s="204"/>
+      <c r="B21" s="176"/>
+      <c r="C21" s="184"/>
       <c r="D21" s="51"/>
       <c r="E21" s="52"/>
       <c r="F21" s="52"/>
       <c r="G21" s="53"/>
       <c r="H21" s="55"/>
-      <c r="I21" s="215"/>
-      <c r="J21" s="215"/>
-      <c r="K21" s="216"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="122"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="118"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="216"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="121"/>
+      <c r="Q21" s="117"/>
+      <c r="R21" s="117"/>
       <c r="S21" s="54"/>
       <c r="T21" s="51"/>
       <c r="U21" s="52"/>
@@ -1920,7 +1934,7 @@
       <c r="W21" s="53"/>
     </row>
     <row r="22" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="201"/>
+      <c r="B22" s="176"/>
       <c r="C22" s="181" t="s">
         <v>29</v>
       </c>
@@ -1932,8 +1946,8 @@
       <c r="I22" s="37"/>
       <c r="J22" s="57"/>
       <c r="K22" s="91"/>
-      <c r="L22" s="142"/>
-      <c r="M22" s="143"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="142"/>
       <c r="N22" s="57"/>
       <c r="O22" s="90"/>
       <c r="P22" s="107"/>
@@ -1946,7 +1960,7 @@
       <c r="W22" s="90"/>
     </row>
     <row r="23" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="201"/>
+      <c r="B23" s="176"/>
       <c r="C23" s="182"/>
       <c r="D23" s="41"/>
       <c r="E23" s="42"/>
@@ -1956,11 +1970,11 @@
       <c r="I23" s="42"/>
       <c r="J23" s="108"/>
       <c r="K23" s="109"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="108"/>
+      <c r="L23" s="217"/>
+      <c r="M23" s="218"/>
       <c r="N23" s="108"/>
-      <c r="O23" s="111"/>
-      <c r="P23" s="112"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="111"/>
       <c r="Q23" s="108"/>
       <c r="R23" s="108"/>
       <c r="S23" s="44"/>
@@ -1970,7 +1984,7 @@
       <c r="W23" s="45"/>
     </row>
     <row r="24" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="201"/>
+      <c r="B24" s="176"/>
       <c r="C24" s="181" t="s">
         <v>30</v>
       </c>
@@ -1980,15 +1994,15 @@
       <c r="G24" s="48"/>
       <c r="H24" s="50"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="113"/>
-      <c r="N24" s="147"/>
-      <c r="O24" s="149"/>
-      <c r="P24" s="117"/>
-      <c r="Q24" s="113"/>
-      <c r="R24" s="113"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="146"/>
+      <c r="O24" s="148"/>
+      <c r="P24" s="116"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="112"/>
       <c r="S24" s="49"/>
       <c r="T24" s="46"/>
       <c r="U24" s="47"/>
@@ -1996,7 +2010,7 @@
       <c r="W24" s="48"/>
     </row>
     <row r="25" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="201"/>
+      <c r="B25" s="176"/>
       <c r="C25" s="182"/>
       <c r="D25" s="51"/>
       <c r="E25" s="52"/>
@@ -2004,15 +2018,15 @@
       <c r="G25" s="53"/>
       <c r="H25" s="55"/>
       <c r="I25" s="52"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="120"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="118"/>
-      <c r="O25" s="121"/>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="118"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="220"/>
+      <c r="P25" s="221"/>
+      <c r="Q25" s="117"/>
+      <c r="R25" s="117"/>
       <c r="S25" s="54"/>
       <c r="T25" s="51"/>
       <c r="U25" s="52"/>
@@ -2020,7 +2034,7 @@
       <c r="W25" s="53"/>
     </row>
     <row r="26" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="201"/>
+      <c r="B26" s="176"/>
       <c r="C26" s="181" t="s">
         <v>31</v>
       </c>
@@ -2036,8 +2050,8 @@
       <c r="M26" s="57"/>
       <c r="N26" s="57"/>
       <c r="O26" s="90"/>
-      <c r="P26" s="148"/>
-      <c r="Q26" s="143"/>
+      <c r="P26" s="147"/>
+      <c r="Q26" s="142"/>
       <c r="R26" s="57"/>
       <c r="S26" s="91"/>
       <c r="T26" s="56"/>
@@ -2046,7 +2060,7 @@
       <c r="W26" s="90"/>
     </row>
     <row r="27" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="202"/>
+      <c r="B27" s="177"/>
       <c r="C27" s="182"/>
       <c r="D27" s="41"/>
       <c r="E27" s="42"/>
@@ -2070,10 +2084,10 @@
       <c r="W27" s="53"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="169" t="s">
+      <c r="B28" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="172" t="s">
+      <c r="C28" s="209" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="58"/>
@@ -2083,14 +2097,14 @@
       <c r="H28" s="61"/>
       <c r="I28" s="59"/>
       <c r="J28" s="59"/>
-      <c r="K28" s="159"/>
-      <c r="L28" s="142"/>
+      <c r="K28" s="158"/>
+      <c r="L28" s="141"/>
       <c r="M28" s="63"/>
       <c r="N28" s="59"/>
-      <c r="O28" s="151"/>
+      <c r="O28" s="150"/>
       <c r="P28" s="61"/>
       <c r="Q28" s="59"/>
-      <c r="R28" s="143"/>
+      <c r="R28" s="142"/>
       <c r="S28" s="62"/>
       <c r="T28" s="58"/>
       <c r="U28" s="59"/>
@@ -2098,8 +2112,8 @@
       <c r="W28" s="60"/>
     </row>
     <row r="29" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="170"/>
-      <c r="C29" s="173"/>
+      <c r="B29" s="207"/>
+      <c r="C29" s="210"/>
       <c r="D29" s="64"/>
       <c r="E29" s="65"/>
       <c r="F29" s="65"/>
@@ -2110,8 +2124,8 @@
       <c r="K29" s="68"/>
       <c r="L29" s="64"/>
       <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="66"/>
+      <c r="N29" s="219"/>
+      <c r="O29" s="220"/>
       <c r="P29" s="67"/>
       <c r="Q29" s="65"/>
       <c r="R29" s="65"/>
@@ -2122,8 +2136,8 @@
       <c r="W29" s="66"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="170"/>
-      <c r="C30" s="172" t="s">
+      <c r="B30" s="207"/>
+      <c r="C30" s="209" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="58"/>
@@ -2137,19 +2151,19 @@
       <c r="L30" s="58"/>
       <c r="M30" s="59"/>
       <c r="N30" s="63"/>
-      <c r="O30" s="157"/>
-      <c r="P30" s="158"/>
+      <c r="O30" s="156"/>
+      <c r="P30" s="157"/>
       <c r="Q30" s="63"/>
-      <c r="R30" s="143"/>
-      <c r="S30" s="152"/>
+      <c r="R30" s="142"/>
+      <c r="S30" s="151"/>
       <c r="T30" s="58"/>
       <c r="U30" s="59"/>
       <c r="V30" s="59"/>
       <c r="W30" s="60"/>
     </row>
     <row r="31" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="171"/>
-      <c r="C31" s="173"/>
+      <c r="B31" s="208"/>
+      <c r="C31" s="210"/>
       <c r="D31" s="69"/>
       <c r="E31" s="70"/>
       <c r="F31" s="70"/>
@@ -2172,110 +2186,110 @@
       <c r="W31" s="71"/>
     </row>
     <row r="32" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="176" t="s">
+      <c r="B32" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="174" t="s">
+      <c r="C32" s="211" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="127"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="143"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="143"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="126"/>
-      <c r="L32" s="127"/>
-      <c r="M32" s="123"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="151"/>
-      <c r="P32" s="125"/>
-      <c r="Q32" s="123"/>
-      <c r="R32" s="123"/>
-      <c r="S32" s="152"/>
-      <c r="T32" s="142"/>
-      <c r="U32" s="143"/>
-      <c r="V32" s="143"/>
-      <c r="W32" s="124"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="122"/>
+      <c r="K32" s="125"/>
+      <c r="L32" s="126"/>
+      <c r="M32" s="122"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="150"/>
+      <c r="P32" s="124"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="122"/>
+      <c r="S32" s="151"/>
+      <c r="T32" s="141"/>
+      <c r="U32" s="142"/>
+      <c r="V32" s="142"/>
+      <c r="W32" s="123"/>
     </row>
     <row r="33" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="177"/>
-      <c r="C33" s="175"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="128"/>
-      <c r="K33" s="131"/>
-      <c r="L33" s="132"/>
-      <c r="M33" s="128"/>
-      <c r="N33" s="128"/>
-      <c r="O33" s="129"/>
-      <c r="P33" s="130"/>
-      <c r="Q33" s="128"/>
-      <c r="R33" s="128"/>
-      <c r="S33" s="131"/>
-      <c r="T33" s="132"/>
-      <c r="U33" s="128"/>
-      <c r="V33" s="128"/>
-      <c r="W33" s="129"/>
+      <c r="B33" s="214"/>
+      <c r="C33" s="212"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="127"/>
+      <c r="K33" s="130"/>
+      <c r="L33" s="131"/>
+      <c r="M33" s="127"/>
+      <c r="N33" s="127"/>
+      <c r="O33" s="128"/>
+      <c r="P33" s="129"/>
+      <c r="Q33" s="127"/>
+      <c r="R33" s="127"/>
+      <c r="S33" s="130"/>
+      <c r="T33" s="131"/>
+      <c r="U33" s="127"/>
+      <c r="V33" s="127"/>
+      <c r="W33" s="128"/>
     </row>
     <row r="34" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="177"/>
-      <c r="C34" s="174" t="s">
+      <c r="B34" s="214"/>
+      <c r="C34" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="136"/>
-      <c r="E34" s="133"/>
-      <c r="F34" s="133"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="133"/>
-      <c r="J34" s="133"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="136"/>
-      <c r="M34" s="133"/>
-      <c r="N34" s="133"/>
-      <c r="O34" s="149"/>
-      <c r="P34" s="135"/>
-      <c r="Q34" s="133"/>
-      <c r="R34" s="133"/>
-      <c r="S34" s="150"/>
-      <c r="T34" s="136"/>
-      <c r="U34" s="133"/>
-      <c r="V34" s="147"/>
-      <c r="W34" s="134"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="132"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="132"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="135"/>
+      <c r="M34" s="132"/>
+      <c r="N34" s="132"/>
+      <c r="O34" s="148"/>
+      <c r="P34" s="134"/>
+      <c r="Q34" s="132"/>
+      <c r="R34" s="132"/>
+      <c r="S34" s="149"/>
+      <c r="T34" s="135"/>
+      <c r="U34" s="132"/>
+      <c r="V34" s="146"/>
+      <c r="W34" s="133"/>
     </row>
     <row r="35" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="178"/>
-      <c r="C35" s="175"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="137"/>
-      <c r="F35" s="137"/>
-      <c r="G35" s="138"/>
-      <c r="H35" s="139"/>
-      <c r="I35" s="137"/>
-      <c r="J35" s="137"/>
-      <c r="K35" s="140"/>
-      <c r="L35" s="141"/>
-      <c r="M35" s="137"/>
-      <c r="N35" s="137"/>
-      <c r="O35" s="138"/>
-      <c r="P35" s="139"/>
-      <c r="Q35" s="137"/>
-      <c r="R35" s="137"/>
-      <c r="S35" s="140"/>
-      <c r="T35" s="141"/>
-      <c r="U35" s="137"/>
-      <c r="V35" s="137"/>
-      <c r="W35" s="138"/>
+      <c r="B35" s="215"/>
+      <c r="C35" s="212"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="223"/>
+      <c r="H35" s="138"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="136"/>
+      <c r="K35" s="222"/>
+      <c r="L35" s="140"/>
+      <c r="M35" s="136"/>
+      <c r="N35" s="136"/>
+      <c r="O35" s="220"/>
+      <c r="P35" s="138"/>
+      <c r="Q35" s="136"/>
+      <c r="R35" s="136"/>
+      <c r="S35" s="139"/>
+      <c r="T35" s="140"/>
+      <c r="U35" s="136"/>
+      <c r="V35" s="136"/>
+      <c r="W35" s="137"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B36" s="165"/>
-      <c r="C36" s="167" t="s">
+      <c r="B36" s="202"/>
+      <c r="C36" s="204" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="74"/>
@@ -2297,11 +2311,11 @@
       <c r="T36" s="74"/>
       <c r="U36" s="75"/>
       <c r="V36" s="63"/>
-      <c r="W36" s="151"/>
+      <c r="W36" s="150"/>
     </row>
     <row r="37" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="166"/>
-      <c r="C37" s="168"/>
+      <c r="B37" s="203"/>
+      <c r="C37" s="205"/>
       <c r="D37" s="79"/>
       <c r="E37" s="80"/>
       <c r="F37" s="80"/>
@@ -2325,6 +2339,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
     <mergeCell ref="B2:G5"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="Q4:S4"/>
@@ -2341,25 +2374,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Docs/ZeitPlan.xlsx
+++ b/Docs/ZeitPlan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C91935-6F97-4C23-8898-DED7DCB01ADD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBBA987-EEBE-40AA-B9A4-2B81BAF8E861}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,8 +171,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,12 +264,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="41">
     <border>
@@ -760,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -896,7 +897,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -914,7 +914,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -947,41 +946,75 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -992,10 +1025,40 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1019,12 +1082,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1040,71 +1097,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1388,26 +1384,26 @@
   <dimension ref="B1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="Z30" sqref="Z30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="43" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="43" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:23" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="166" t="s">
+    <row r="1" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:23" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
       <c r="H2" s="84"/>
       <c r="I2" s="84"/>
       <c r="J2" s="84"/>
@@ -1423,15 +1419,15 @@
       <c r="T2" s="84"/>
       <c r="U2" s="84"/>
       <c r="V2" s="84"/>
-      <c r="W2" s="159"/>
-    </row>
-    <row r="3" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="168"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
+      <c r="W2" s="157"/>
+    </row>
+    <row r="3" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="193"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
       <c r="H3" s="85"/>
       <c r="I3" s="85"/>
       <c r="J3" s="85"/>
@@ -1441,23 +1437,23 @@
       <c r="N3" s="85"/>
       <c r="O3" s="85"/>
       <c r="P3" s="93"/>
-      <c r="Q3" s="172" t="s">
+      <c r="Q3" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="173"/>
-      <c r="S3" s="174"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="199"/>
       <c r="T3" s="85"/>
       <c r="U3" s="85"/>
       <c r="V3" s="85"/>
-      <c r="W3" s="160"/>
-    </row>
-    <row r="4" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="168"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
+      <c r="W3" s="158"/>
+    </row>
+    <row r="4" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="193"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
       <c r="H4" s="85"/>
       <c r="I4" s="85"/>
       <c r="J4" s="85"/>
@@ -1467,23 +1463,23 @@
       <c r="N4" s="85"/>
       <c r="O4" s="85"/>
       <c r="P4" s="92"/>
-      <c r="Q4" s="172" t="s">
+      <c r="Q4" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="173"/>
-      <c r="S4" s="174"/>
+      <c r="R4" s="198"/>
+      <c r="S4" s="199"/>
       <c r="T4" s="85"/>
       <c r="U4" s="85"/>
       <c r="V4" s="85"/>
-      <c r="W4" s="160"/>
-    </row>
-    <row r="5" spans="2:23" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="170"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
+      <c r="W4" s="158"/>
+    </row>
+    <row r="5" spans="2:23" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="195"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="196"/>
       <c r="H5" s="86"/>
       <c r="I5" s="86"/>
       <c r="J5" s="86"/>
@@ -1499,91 +1495,91 @@
       <c r="T5" s="86"/>
       <c r="U5" s="86"/>
       <c r="V5" s="86"/>
-      <c r="W5" s="161"/>
-    </row>
-    <row r="6" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W5" s="159"/>
+    </row>
+    <row r="6" spans="2:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="178">
+      <c r="D6" s="188">
         <v>1</v>
       </c>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="179">
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="189">
         <v>2</v>
       </c>
-      <c r="I6" s="179"/>
-      <c r="J6" s="179"/>
-      <c r="K6" s="179"/>
-      <c r="L6" s="178">
+      <c r="I6" s="189"/>
+      <c r="J6" s="189"/>
+      <c r="K6" s="189"/>
+      <c r="L6" s="188">
         <v>3</v>
       </c>
-      <c r="M6" s="179"/>
-      <c r="N6" s="179"/>
-      <c r="O6" s="180"/>
-      <c r="P6" s="179">
+      <c r="M6" s="189"/>
+      <c r="N6" s="189"/>
+      <c r="O6" s="190"/>
+      <c r="P6" s="189">
         <v>4</v>
       </c>
-      <c r="Q6" s="179"/>
-      <c r="R6" s="179"/>
-      <c r="S6" s="179"/>
-      <c r="T6" s="197">
+      <c r="Q6" s="189"/>
+      <c r="R6" s="189"/>
+      <c r="S6" s="189"/>
+      <c r="T6" s="185">
         <v>5</v>
       </c>
-      <c r="U6" s="198"/>
-      <c r="V6" s="198"/>
-      <c r="W6" s="199"/>
-    </row>
-    <row r="7" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U6" s="186"/>
+      <c r="V6" s="186"/>
+      <c r="W6" s="187"/>
+    </row>
+    <row r="7" spans="2:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="178" t="s">
+      <c r="D7" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="178" t="s">
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="179"/>
-      <c r="J7" s="179"/>
-      <c r="K7" s="180"/>
-      <c r="L7" s="178" t="s">
+      <c r="I7" s="189"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="190"/>
+      <c r="L7" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="178" t="s">
+      <c r="M7" s="189"/>
+      <c r="N7" s="189"/>
+      <c r="O7" s="190"/>
+      <c r="P7" s="188" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="179"/>
-      <c r="S7" s="180"/>
-      <c r="T7" s="197" t="s">
+      <c r="Q7" s="189"/>
+      <c r="R7" s="189"/>
+      <c r="S7" s="190"/>
+      <c r="T7" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="U7" s="198"/>
-      <c r="V7" s="198"/>
-      <c r="W7" s="199"/>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="185" t="s">
+      <c r="U7" s="186"/>
+      <c r="V7" s="186"/>
+      <c r="W7" s="187"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B8" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C8" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="141"/>
-      <c r="E8" s="142"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="140"/>
       <c r="F8" s="95"/>
       <c r="G8" s="96"/>
       <c r="H8" s="97"/>
@@ -1603,11 +1599,11 @@
       <c r="V8" s="4"/>
       <c r="W8" s="5"/>
     </row>
-    <row r="9" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="186"/>
-      <c r="C9" s="191"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+    <row r="9" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="206"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="151"/>
       <c r="F9" s="10"/>
       <c r="G9" s="99"/>
       <c r="H9" s="100"/>
@@ -1627,15 +1623,15 @@
       <c r="V9" s="7"/>
       <c r="W9" s="8"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="186"/>
-      <c r="C10" s="190" t="s">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B10" s="206"/>
+      <c r="C10" s="183" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="102"/>
       <c r="E10" s="103"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="144"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="142"/>
       <c r="H10" s="105"/>
       <c r="I10" s="103"/>
       <c r="J10" s="103"/>
@@ -1653,13 +1649,13 @@
       <c r="V10" s="88"/>
       <c r="W10" s="89"/>
     </row>
-    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="187"/>
-      <c r="C11" s="191"/>
+    <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="207"/>
+      <c r="C11" s="184"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="154"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="152"/>
       <c r="H11" s="100"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -1677,18 +1673,18 @@
       <c r="V11" s="7"/>
       <c r="W11" s="8"/>
     </row>
-    <row r="12" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="192" t="s">
+    <row r="12" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="188" t="s">
+      <c r="C12" s="208" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="145"/>
+      <c r="H12" s="143"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="14"/>
@@ -1705,14 +1701,14 @@
       <c r="V12" s="11"/>
       <c r="W12" s="12"/>
     </row>
-    <row r="13" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="193"/>
-      <c r="C13" s="189"/>
+    <row r="13" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="211"/>
+      <c r="C13" s="209"/>
       <c r="D13" s="21"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="163"/>
+      <c r="H13" s="161"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
       <c r="K13" s="25"/>
@@ -1729,9 +1725,9 @@
       <c r="V13" s="22"/>
       <c r="W13" s="23"/>
     </row>
-    <row r="14" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="193"/>
-      <c r="C14" s="188" t="s">
+    <row r="14" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="211"/>
+      <c r="C14" s="208" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="15"/>
@@ -1739,7 +1735,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="146"/>
+      <c r="I14" s="144"/>
       <c r="J14" s="11"/>
       <c r="K14" s="14"/>
       <c r="L14" s="15"/>
@@ -1755,15 +1751,15 @@
       <c r="V14" s="11"/>
       <c r="W14" s="12"/>
     </row>
-    <row r="15" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="194"/>
-      <c r="C15" s="189"/>
+    <row r="15" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="212"/>
+      <c r="C15" s="209"/>
       <c r="D15" s="20"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
-      <c r="I15" s="162"/>
+      <c r="I15" s="160"/>
       <c r="J15" s="16"/>
       <c r="K15" s="19"/>
       <c r="L15" s="20"/>
@@ -1779,19 +1775,19 @@
       <c r="V15" s="16"/>
       <c r="W15" s="17"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="195" t="s">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B16" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="200" t="s">
+      <c r="C16" s="179" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="28"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="142"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="140"/>
       <c r="J16" s="27"/>
       <c r="K16" s="30"/>
       <c r="L16" s="26"/>
@@ -1807,15 +1803,15 @@
       <c r="V16" s="27"/>
       <c r="W16" s="28"/>
     </row>
-    <row r="17" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="196"/>
-      <c r="C17" s="201"/>
+    <row r="17" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="214"/>
+      <c r="C17" s="180"/>
       <c r="D17" s="31"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="153"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="151"/>
       <c r="J17" s="32"/>
       <c r="K17" s="35"/>
       <c r="L17" s="31"/>
@@ -1831,8 +1827,8 @@
       <c r="V17" s="32"/>
       <c r="W17" s="33"/>
     </row>
-    <row r="18" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="175" t="s">
+    <row r="18" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="200" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="181" t="s">
@@ -1844,7 +1840,7 @@
       <c r="G18" s="40"/>
       <c r="H18" s="38"/>
       <c r="I18" s="37"/>
-      <c r="J18" s="142"/>
+      <c r="J18" s="140"/>
       <c r="K18" s="91"/>
       <c r="L18" s="56"/>
       <c r="M18" s="57"/>
@@ -1859,8 +1855,8 @@
       <c r="V18" s="37"/>
       <c r="W18" s="40"/>
     </row>
-    <row r="19" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="176"/>
+    <row r="19" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="201"/>
       <c r="C19" s="182"/>
       <c r="D19" s="41"/>
       <c r="E19" s="42"/>
@@ -1870,7 +1866,7 @@
       <c r="I19" s="42"/>
       <c r="J19" s="108"/>
       <c r="K19" s="109"/>
-      <c r="L19" s="152"/>
+      <c r="L19" s="150"/>
       <c r="M19" s="108"/>
       <c r="N19" s="108"/>
       <c r="O19" s="110"/>
@@ -1883,9 +1879,9 @@
       <c r="V19" s="42"/>
       <c r="W19" s="45"/>
     </row>
-    <row r="20" spans="2:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="176"/>
-      <c r="C20" s="183" t="s">
+    <row r="20" spans="2:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="201"/>
+      <c r="C20" s="203" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="46"/>
@@ -1895,13 +1891,13 @@
       <c r="H20" s="50"/>
       <c r="I20" s="47"/>
       <c r="J20" s="112"/>
-      <c r="K20" s="149"/>
-      <c r="L20" s="155"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="153"/>
       <c r="M20" s="112"/>
       <c r="N20" s="112"/>
       <c r="O20" s="115"/>
-      <c r="P20" s="116"/>
-      <c r="Q20" s="112"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="47"/>
       <c r="R20" s="112"/>
       <c r="S20" s="49"/>
       <c r="T20" s="46"/>
@@ -1909,23 +1905,23 @@
       <c r="V20" s="47"/>
       <c r="W20" s="48"/>
     </row>
-    <row r="21" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="176"/>
-      <c r="C21" s="184"/>
+    <row r="21" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="201"/>
+      <c r="C21" s="204"/>
       <c r="D21" s="51"/>
       <c r="E21" s="52"/>
       <c r="F21" s="52"/>
       <c r="G21" s="53"/>
       <c r="H21" s="55"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="164"/>
-      <c r="K21" s="165"/>
-      <c r="L21" s="216"/>
+      <c r="I21" s="162"/>
+      <c r="J21" s="162"/>
+      <c r="K21" s="163"/>
+      <c r="L21" s="215"/>
       <c r="M21" s="117"/>
       <c r="N21" s="117"/>
       <c r="O21" s="120"/>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="117"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="52"/>
       <c r="R21" s="117"/>
       <c r="S21" s="54"/>
       <c r="T21" s="51"/>
@@ -1933,8 +1929,8 @@
       <c r="V21" s="52"/>
       <c r="W21" s="53"/>
     </row>
-    <row r="22" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="176"/>
+    <row r="22" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="201"/>
       <c r="C22" s="181" t="s">
         <v>29</v>
       </c>
@@ -1946,8 +1942,8 @@
       <c r="I22" s="37"/>
       <c r="J22" s="57"/>
       <c r="K22" s="91"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="142"/>
+      <c r="L22" s="139"/>
+      <c r="M22" s="140"/>
       <c r="N22" s="57"/>
       <c r="O22" s="90"/>
       <c r="P22" s="107"/>
@@ -1959,8 +1955,8 @@
       <c r="V22" s="57"/>
       <c r="W22" s="90"/>
     </row>
-    <row r="23" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="176"/>
+    <row r="23" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="201"/>
       <c r="C23" s="182"/>
       <c r="D23" s="41"/>
       <c r="E23" s="42"/>
@@ -1970,21 +1966,21 @@
       <c r="I23" s="42"/>
       <c r="J23" s="108"/>
       <c r="K23" s="109"/>
-      <c r="L23" s="217"/>
-      <c r="M23" s="218"/>
+      <c r="L23" s="150"/>
+      <c r="M23" s="151"/>
       <c r="N23" s="108"/>
       <c r="O23" s="110"/>
-      <c r="P23" s="111"/>
-      <c r="Q23" s="108"/>
-      <c r="R23" s="108"/>
+      <c r="P23" s="161"/>
+      <c r="Q23" s="151"/>
+      <c r="R23" s="151"/>
       <c r="S23" s="44"/>
       <c r="T23" s="41"/>
       <c r="U23" s="42"/>
       <c r="V23" s="42"/>
       <c r="W23" s="45"/>
     </row>
-    <row r="24" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="176"/>
+    <row r="24" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="201"/>
       <c r="C24" s="181" t="s">
         <v>30</v>
       </c>
@@ -1998,8 +1994,8 @@
       <c r="K24" s="113"/>
       <c r="L24" s="114"/>
       <c r="M24" s="112"/>
-      <c r="N24" s="146"/>
-      <c r="O24" s="148"/>
+      <c r="N24" s="144"/>
+      <c r="O24" s="146"/>
       <c r="P24" s="116"/>
       <c r="Q24" s="112"/>
       <c r="R24" s="112"/>
@@ -2009,8 +2005,8 @@
       <c r="V24" s="47"/>
       <c r="W24" s="48"/>
     </row>
-    <row r="25" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="176"/>
+    <row r="25" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="201"/>
       <c r="C25" s="182"/>
       <c r="D25" s="51"/>
       <c r="E25" s="52"/>
@@ -2023,18 +2019,18 @@
       <c r="L25" s="119"/>
       <c r="M25" s="117"/>
       <c r="N25" s="52"/>
-      <c r="O25" s="220"/>
-      <c r="P25" s="221"/>
+      <c r="O25" s="164"/>
+      <c r="P25" s="55"/>
       <c r="Q25" s="117"/>
       <c r="R25" s="117"/>
-      <c r="S25" s="54"/>
+      <c r="S25" s="118"/>
       <c r="T25" s="51"/>
       <c r="U25" s="52"/>
       <c r="V25" s="52"/>
       <c r="W25" s="53"/>
     </row>
-    <row r="26" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="176"/>
+    <row r="26" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="201"/>
       <c r="C26" s="181" t="s">
         <v>31</v>
       </c>
@@ -2050,8 +2046,8 @@
       <c r="M26" s="57"/>
       <c r="N26" s="57"/>
       <c r="O26" s="90"/>
-      <c r="P26" s="147"/>
-      <c r="Q26" s="142"/>
+      <c r="P26" s="145"/>
+      <c r="Q26" s="140"/>
       <c r="R26" s="57"/>
       <c r="S26" s="91"/>
       <c r="T26" s="56"/>
@@ -2059,8 +2055,8 @@
       <c r="V26" s="57"/>
       <c r="W26" s="90"/>
     </row>
-    <row r="27" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="177"/>
+    <row r="27" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="202"/>
       <c r="C27" s="182"/>
       <c r="D27" s="41"/>
       <c r="E27" s="42"/>
@@ -2077,17 +2073,17 @@
       <c r="P27" s="43"/>
       <c r="Q27" s="42"/>
       <c r="R27" s="42"/>
-      <c r="S27" s="44"/>
+      <c r="S27" s="218"/>
       <c r="T27" s="51"/>
       <c r="U27" s="52"/>
       <c r="V27" s="52"/>
       <c r="W27" s="53"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="206" t="s">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="209" t="s">
+      <c r="C28" s="172" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="58"/>
@@ -2097,23 +2093,23 @@
       <c r="H28" s="61"/>
       <c r="I28" s="59"/>
       <c r="J28" s="59"/>
-      <c r="K28" s="158"/>
-      <c r="L28" s="141"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="139"/>
       <c r="M28" s="63"/>
       <c r="N28" s="59"/>
-      <c r="O28" s="150"/>
+      <c r="O28" s="148"/>
       <c r="P28" s="61"/>
       <c r="Q28" s="59"/>
-      <c r="R28" s="142"/>
+      <c r="R28" s="140"/>
       <c r="S28" s="62"/>
       <c r="T28" s="58"/>
       <c r="U28" s="59"/>
       <c r="V28" s="59"/>
       <c r="W28" s="60"/>
     </row>
-    <row r="29" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="207"/>
-      <c r="C29" s="210"/>
+    <row r="29" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="170"/>
+      <c r="C29" s="173"/>
       <c r="D29" s="64"/>
       <c r="E29" s="65"/>
       <c r="F29" s="65"/>
@@ -2123,9 +2119,9 @@
       <c r="J29" s="65"/>
       <c r="K29" s="68"/>
       <c r="L29" s="64"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="219"/>
-      <c r="O29" s="220"/>
+      <c r="M29" s="160"/>
+      <c r="N29" s="160"/>
+      <c r="O29" s="217"/>
       <c r="P29" s="67"/>
       <c r="Q29" s="65"/>
       <c r="R29" s="65"/>
@@ -2135,9 +2131,9 @@
       <c r="V29" s="65"/>
       <c r="W29" s="66"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="207"/>
-      <c r="C30" s="209" t="s">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B30" s="170"/>
+      <c r="C30" s="172" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="58"/>
@@ -2151,19 +2147,19 @@
       <c r="L30" s="58"/>
       <c r="M30" s="59"/>
       <c r="N30" s="63"/>
-      <c r="O30" s="156"/>
-      <c r="P30" s="157"/>
+      <c r="O30" s="154"/>
+      <c r="P30" s="155"/>
       <c r="Q30" s="63"/>
-      <c r="R30" s="142"/>
-      <c r="S30" s="151"/>
+      <c r="R30" s="140"/>
+      <c r="S30" s="149"/>
       <c r="T30" s="58"/>
       <c r="U30" s="59"/>
       <c r="V30" s="59"/>
       <c r="W30" s="60"/>
     </row>
-    <row r="31" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="208"/>
-      <c r="C31" s="210"/>
+    <row r="31" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="171"/>
+      <c r="C31" s="173"/>
       <c r="D31" s="69"/>
       <c r="E31" s="70"/>
       <c r="F31" s="70"/>
@@ -2180,116 +2176,116 @@
       <c r="Q31" s="70"/>
       <c r="R31" s="70"/>
       <c r="S31" s="73"/>
-      <c r="T31" s="69"/>
+      <c r="T31" s="150"/>
       <c r="U31" s="70"/>
       <c r="V31" s="70"/>
       <c r="W31" s="71"/>
     </row>
-    <row r="32" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="213" t="s">
+    <row r="32" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="211" t="s">
+      <c r="C32" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="126"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="124"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="122"/>
-      <c r="K32" s="125"/>
-      <c r="L32" s="126"/>
-      <c r="M32" s="122"/>
-      <c r="N32" s="122"/>
-      <c r="O32" s="150"/>
-      <c r="P32" s="124"/>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="122"/>
-      <c r="S32" s="151"/>
-      <c r="T32" s="141"/>
-      <c r="U32" s="142"/>
-      <c r="V32" s="142"/>
-      <c r="W32" s="123"/>
-    </row>
-    <row r="33" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="214"/>
-      <c r="C33" s="212"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="129"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="127"/>
-      <c r="K33" s="130"/>
-      <c r="L33" s="131"/>
-      <c r="M33" s="127"/>
-      <c r="N33" s="127"/>
-      <c r="O33" s="128"/>
-      <c r="P33" s="129"/>
-      <c r="Q33" s="127"/>
-      <c r="R33" s="127"/>
-      <c r="S33" s="130"/>
-      <c r="T33" s="131"/>
-      <c r="U33" s="127"/>
-      <c r="V33" s="127"/>
-      <c r="W33" s="128"/>
-    </row>
-    <row r="34" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="214"/>
-      <c r="C34" s="211" t="s">
+      <c r="D32" s="125"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="121"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="125"/>
+      <c r="M32" s="121"/>
+      <c r="N32" s="121"/>
+      <c r="O32" s="148"/>
+      <c r="P32" s="123"/>
+      <c r="Q32" s="121"/>
+      <c r="R32" s="121"/>
+      <c r="S32" s="149"/>
+      <c r="T32" s="139"/>
+      <c r="U32" s="140"/>
+      <c r="V32" s="140"/>
+      <c r="W32" s="122"/>
+    </row>
+    <row r="33" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="177"/>
+      <c r="C33" s="175"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="151"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="130"/>
+      <c r="M33" s="126"/>
+      <c r="N33" s="126"/>
+      <c r="O33" s="127"/>
+      <c r="P33" s="128"/>
+      <c r="Q33" s="126"/>
+      <c r="R33" s="126"/>
+      <c r="S33" s="129"/>
+      <c r="T33" s="130"/>
+      <c r="U33" s="151"/>
+      <c r="V33" s="151"/>
+      <c r="W33" s="152"/>
+    </row>
+    <row r="34" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="177"/>
+      <c r="C34" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="135"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="132"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="132"/>
-      <c r="J34" s="132"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="135"/>
-      <c r="M34" s="132"/>
-      <c r="N34" s="132"/>
-      <c r="O34" s="148"/>
-      <c r="P34" s="134"/>
-      <c r="Q34" s="132"/>
-      <c r="R34" s="132"/>
-      <c r="S34" s="149"/>
-      <c r="T34" s="135"/>
-      <c r="U34" s="132"/>
-      <c r="V34" s="146"/>
-      <c r="W34" s="133"/>
-    </row>
-    <row r="35" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="215"/>
-      <c r="C35" s="212"/>
-      <c r="D35" s="140"/>
-      <c r="E35" s="136"/>
-      <c r="F35" s="136"/>
-      <c r="G35" s="223"/>
-      <c r="H35" s="138"/>
-      <c r="I35" s="136"/>
-      <c r="J35" s="136"/>
-      <c r="K35" s="222"/>
-      <c r="L35" s="140"/>
-      <c r="M35" s="136"/>
-      <c r="N35" s="136"/>
-      <c r="O35" s="220"/>
-      <c r="P35" s="138"/>
-      <c r="Q35" s="136"/>
-      <c r="R35" s="136"/>
-      <c r="S35" s="139"/>
-      <c r="T35" s="140"/>
-      <c r="U35" s="136"/>
-      <c r="V35" s="136"/>
-      <c r="W35" s="137"/>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B36" s="202"/>
-      <c r="C36" s="204" t="s">
+      <c r="D34" s="134"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="133"/>
+      <c r="I34" s="131"/>
+      <c r="J34" s="131"/>
+      <c r="K34" s="147"/>
+      <c r="L34" s="134"/>
+      <c r="M34" s="131"/>
+      <c r="N34" s="131"/>
+      <c r="O34" s="146"/>
+      <c r="P34" s="133"/>
+      <c r="Q34" s="131"/>
+      <c r="R34" s="131"/>
+      <c r="S34" s="147"/>
+      <c r="T34" s="134"/>
+      <c r="U34" s="131"/>
+      <c r="V34" s="144"/>
+      <c r="W34" s="132"/>
+    </row>
+    <row r="35" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="178"/>
+      <c r="C35" s="175"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="164"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="135"/>
+      <c r="J35" s="135"/>
+      <c r="K35" s="216"/>
+      <c r="L35" s="138"/>
+      <c r="M35" s="135"/>
+      <c r="N35" s="135"/>
+      <c r="O35" s="164"/>
+      <c r="P35" s="137"/>
+      <c r="Q35" s="135"/>
+      <c r="R35" s="135"/>
+      <c r="S35" s="216"/>
+      <c r="T35" s="138"/>
+      <c r="U35" s="135"/>
+      <c r="V35" s="160"/>
+      <c r="W35" s="136"/>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B36" s="165"/>
+      <c r="C36" s="167" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="74"/>
@@ -2311,11 +2307,11 @@
       <c r="T36" s="74"/>
       <c r="U36" s="75"/>
       <c r="V36" s="63"/>
-      <c r="W36" s="150"/>
-    </row>
-    <row r="37" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="203"/>
-      <c r="C37" s="205"/>
+      <c r="W36" s="148"/>
+    </row>
+    <row r="37" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="166"/>
+      <c r="C37" s="168"/>
       <c r="D37" s="79"/>
       <c r="E37" s="80"/>
       <c r="F37" s="80"/>
@@ -2339,25 +2335,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
     <mergeCell ref="B2:G5"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="Q4:S4"/>
@@ -2374,6 +2351,25 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Docs/ZeitPlan.xlsx
+++ b/Docs/ZeitPlan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBBA987-EEBE-40AA-B9A4-2B81BAF8E861}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C9B798-5F01-41E8-A70E-A9502585B503}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -761,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -947,160 +947,161 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1384,26 +1385,26 @@
   <dimension ref="B1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z30" sqref="Z30"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="43" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="43" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:23" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="191" t="s">
+    <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:23" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
       <c r="H2" s="84"/>
       <c r="I2" s="84"/>
       <c r="J2" s="84"/>
@@ -1421,13 +1422,13 @@
       <c r="V2" s="84"/>
       <c r="W2" s="157"/>
     </row>
-    <row r="3" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="193"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
+    <row r="3" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="170"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
       <c r="H3" s="85"/>
       <c r="I3" s="85"/>
       <c r="J3" s="85"/>
@@ -1437,23 +1438,23 @@
       <c r="N3" s="85"/>
       <c r="O3" s="85"/>
       <c r="P3" s="93"/>
-      <c r="Q3" s="197" t="s">
+      <c r="Q3" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="198"/>
-      <c r="S3" s="199"/>
+      <c r="R3" s="175"/>
+      <c r="S3" s="176"/>
       <c r="T3" s="85"/>
       <c r="U3" s="85"/>
       <c r="V3" s="85"/>
       <c r="W3" s="158"/>
     </row>
-    <row r="4" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="193"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="194"/>
+    <row r="4" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="170"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
       <c r="H4" s="85"/>
       <c r="I4" s="85"/>
       <c r="J4" s="85"/>
@@ -1463,23 +1464,23 @@
       <c r="N4" s="85"/>
       <c r="O4" s="85"/>
       <c r="P4" s="92"/>
-      <c r="Q4" s="197" t="s">
+      <c r="Q4" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="198"/>
-      <c r="S4" s="199"/>
+      <c r="R4" s="175"/>
+      <c r="S4" s="176"/>
       <c r="T4" s="85"/>
       <c r="U4" s="85"/>
       <c r="V4" s="85"/>
       <c r="W4" s="158"/>
     </row>
-    <row r="5" spans="2:23" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="195"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
-      <c r="G5" s="196"/>
+    <row r="5" spans="2:23" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="172"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
       <c r="H5" s="86"/>
       <c r="I5" s="86"/>
       <c r="J5" s="86"/>
@@ -1497,85 +1498,85 @@
       <c r="V5" s="86"/>
       <c r="W5" s="159"/>
     </row>
-    <row r="6" spans="2:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="188">
+      <c r="D6" s="180">
         <v>1</v>
       </c>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="190"/>
-      <c r="H6" s="189">
+      <c r="E6" s="181"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="181">
         <v>2</v>
       </c>
-      <c r="I6" s="189"/>
-      <c r="J6" s="189"/>
-      <c r="K6" s="189"/>
-      <c r="L6" s="188">
+      <c r="I6" s="181"/>
+      <c r="J6" s="181"/>
+      <c r="K6" s="181"/>
+      <c r="L6" s="180">
         <v>3</v>
       </c>
-      <c r="M6" s="189"/>
-      <c r="N6" s="189"/>
-      <c r="O6" s="190"/>
-      <c r="P6" s="189">
+      <c r="M6" s="181"/>
+      <c r="N6" s="181"/>
+      <c r="O6" s="182"/>
+      <c r="P6" s="181">
         <v>4</v>
       </c>
-      <c r="Q6" s="189"/>
-      <c r="R6" s="189"/>
-      <c r="S6" s="189"/>
-      <c r="T6" s="185">
+      <c r="Q6" s="181"/>
+      <c r="R6" s="181"/>
+      <c r="S6" s="181"/>
+      <c r="T6" s="199">
         <v>5</v>
       </c>
-      <c r="U6" s="186"/>
-      <c r="V6" s="186"/>
-      <c r="W6" s="187"/>
-    </row>
-    <row r="7" spans="2:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U6" s="200"/>
+      <c r="V6" s="200"/>
+      <c r="W6" s="201"/>
+    </row>
+    <row r="7" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="188" t="s">
+      <c r="D7" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="190"/>
-      <c r="H7" s="188" t="s">
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="189"/>
-      <c r="J7" s="189"/>
-      <c r="K7" s="190"/>
-      <c r="L7" s="188" t="s">
+      <c r="I7" s="181"/>
+      <c r="J7" s="181"/>
+      <c r="K7" s="182"/>
+      <c r="L7" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="189"/>
-      <c r="N7" s="189"/>
-      <c r="O7" s="190"/>
-      <c r="P7" s="188" t="s">
+      <c r="M7" s="181"/>
+      <c r="N7" s="181"/>
+      <c r="O7" s="182"/>
+      <c r="P7" s="180" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="189"/>
-      <c r="R7" s="189"/>
-      <c r="S7" s="190"/>
-      <c r="T7" s="185" t="s">
+      <c r="Q7" s="181"/>
+      <c r="R7" s="181"/>
+      <c r="S7" s="182"/>
+      <c r="T7" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="U7" s="186"/>
-      <c r="V7" s="186"/>
-      <c r="W7" s="187"/>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" s="205" t="s">
+      <c r="U7" s="200"/>
+      <c r="V7" s="200"/>
+      <c r="W7" s="201"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="183" t="s">
+      <c r="C8" s="192" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="139"/>
@@ -1599,9 +1600,9 @@
       <c r="V8" s="4"/>
       <c r="W8" s="5"/>
     </row>
-    <row r="9" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="206"/>
-      <c r="C9" s="184"/>
+    <row r="9" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="188"/>
+      <c r="C9" s="193"/>
       <c r="D9" s="150"/>
       <c r="E9" s="151"/>
       <c r="F9" s="10"/>
@@ -1623,9 +1624,9 @@
       <c r="V9" s="7"/>
       <c r="W9" s="8"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="206"/>
-      <c r="C10" s="183" t="s">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="188"/>
+      <c r="C10" s="192" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="102"/>
@@ -1649,9 +1650,9 @@
       <c r="V10" s="88"/>
       <c r="W10" s="89"/>
     </row>
-    <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="207"/>
-      <c r="C11" s="184"/>
+    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="189"/>
+      <c r="C11" s="193"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
       <c r="F11" s="151"/>
@@ -1673,11 +1674,11 @@
       <c r="V11" s="7"/>
       <c r="W11" s="8"/>
     </row>
-    <row r="12" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="210" t="s">
+    <row r="12" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="194" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="208" t="s">
+      <c r="C12" s="190" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="15"/>
@@ -1701,9 +1702,9 @@
       <c r="V12" s="11"/>
       <c r="W12" s="12"/>
     </row>
-    <row r="13" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="211"/>
-      <c r="C13" s="209"/>
+    <row r="13" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="195"/>
+      <c r="C13" s="191"/>
       <c r="D13" s="21"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
@@ -1725,9 +1726,9 @@
       <c r="V13" s="22"/>
       <c r="W13" s="23"/>
     </row>
-    <row r="14" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="211"/>
-      <c r="C14" s="208" t="s">
+    <row r="14" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="195"/>
+      <c r="C14" s="190" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="15"/>
@@ -1751,9 +1752,9 @@
       <c r="V14" s="11"/>
       <c r="W14" s="12"/>
     </row>
-    <row r="15" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="212"/>
-      <c r="C15" s="209"/>
+    <row r="15" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="196"/>
+      <c r="C15" s="191"/>
       <c r="D15" s="20"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -1775,11 +1776,11 @@
       <c r="V15" s="16"/>
       <c r="W15" s="17"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="213" t="s">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="179" t="s">
+      <c r="C16" s="202" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="26"/>
@@ -1803,9 +1804,9 @@
       <c r="V16" s="27"/>
       <c r="W16" s="28"/>
     </row>
-    <row r="17" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="214"/>
-      <c r="C17" s="180"/>
+    <row r="17" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="198"/>
+      <c r="C17" s="203"/>
       <c r="D17" s="31"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
@@ -1827,11 +1828,11 @@
       <c r="V17" s="32"/>
       <c r="W17" s="33"/>
     </row>
-    <row r="18" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="200" t="s">
+    <row r="18" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="181" t="s">
+      <c r="C18" s="183" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="36"/>
@@ -1855,9 +1856,9 @@
       <c r="V18" s="37"/>
       <c r="W18" s="40"/>
     </row>
-    <row r="19" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="201"/>
-      <c r="C19" s="182"/>
+    <row r="19" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="178"/>
+      <c r="C19" s="184"/>
       <c r="D19" s="41"/>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -1879,9 +1880,9 @@
       <c r="V19" s="42"/>
       <c r="W19" s="45"/>
     </row>
-    <row r="20" spans="2:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="201"/>
-      <c r="C20" s="203" t="s">
+    <row r="20" spans="2:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="178"/>
+      <c r="C20" s="185" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="46"/>
@@ -1905,9 +1906,9 @@
       <c r="V20" s="47"/>
       <c r="W20" s="48"/>
     </row>
-    <row r="21" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="201"/>
-      <c r="C21" s="204"/>
+    <row r="21" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="178"/>
+      <c r="C21" s="186"/>
       <c r="D21" s="51"/>
       <c r="E21" s="52"/>
       <c r="F21" s="52"/>
@@ -1916,7 +1917,7 @@
       <c r="I21" s="162"/>
       <c r="J21" s="162"/>
       <c r="K21" s="163"/>
-      <c r="L21" s="215"/>
+      <c r="L21" s="218"/>
       <c r="M21" s="117"/>
       <c r="N21" s="117"/>
       <c r="O21" s="120"/>
@@ -1929,9 +1930,9 @@
       <c r="V21" s="52"/>
       <c r="W21" s="53"/>
     </row>
-    <row r="22" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="201"/>
-      <c r="C22" s="181" t="s">
+    <row r="22" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="178"/>
+      <c r="C22" s="183" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="36"/>
@@ -1955,9 +1956,9 @@
       <c r="V22" s="57"/>
       <c r="W22" s="90"/>
     </row>
-    <row r="23" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="201"/>
-      <c r="C23" s="182"/>
+    <row r="23" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="178"/>
+      <c r="C23" s="184"/>
       <c r="D23" s="41"/>
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
@@ -1966,8 +1967,8 @@
       <c r="I23" s="42"/>
       <c r="J23" s="108"/>
       <c r="K23" s="109"/>
-      <c r="L23" s="150"/>
-      <c r="M23" s="151"/>
+      <c r="L23" s="219"/>
+      <c r="M23" s="108"/>
       <c r="N23" s="108"/>
       <c r="O23" s="110"/>
       <c r="P23" s="161"/>
@@ -1979,9 +1980,9 @@
       <c r="V23" s="42"/>
       <c r="W23" s="45"/>
     </row>
-    <row r="24" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="201"/>
-      <c r="C24" s="181" t="s">
+    <row r="24" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="178"/>
+      <c r="C24" s="183" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="46"/>
@@ -2005,9 +2006,9 @@
       <c r="V24" s="47"/>
       <c r="W24" s="48"/>
     </row>
-    <row r="25" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="201"/>
-      <c r="C25" s="182"/>
+    <row r="25" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="178"/>
+      <c r="C25" s="184"/>
       <c r="D25" s="51"/>
       <c r="E25" s="52"/>
       <c r="F25" s="52"/>
@@ -2029,9 +2030,9 @@
       <c r="V25" s="52"/>
       <c r="W25" s="53"/>
     </row>
-    <row r="26" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="201"/>
-      <c r="C26" s="181" t="s">
+    <row r="26" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="178"/>
+      <c r="C26" s="183" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="36"/>
@@ -2055,9 +2056,9 @@
       <c r="V26" s="57"/>
       <c r="W26" s="90"/>
     </row>
-    <row r="27" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="202"/>
-      <c r="C27" s="182"/>
+    <row r="27" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="179"/>
+      <c r="C27" s="184"/>
       <c r="D27" s="41"/>
       <c r="E27" s="42"/>
       <c r="F27" s="42"/>
@@ -2073,17 +2074,17 @@
       <c r="P27" s="43"/>
       <c r="Q27" s="42"/>
       <c r="R27" s="42"/>
-      <c r="S27" s="218"/>
+      <c r="S27" s="167"/>
       <c r="T27" s="51"/>
       <c r="U27" s="52"/>
       <c r="V27" s="52"/>
       <c r="W27" s="53"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B28" s="169" t="s">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B28" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="172" t="s">
+      <c r="C28" s="211" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="58"/>
@@ -2107,9 +2108,9 @@
       <c r="V28" s="59"/>
       <c r="W28" s="60"/>
     </row>
-    <row r="29" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="170"/>
-      <c r="C29" s="173"/>
+    <row r="29" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="209"/>
+      <c r="C29" s="212"/>
       <c r="D29" s="64"/>
       <c r="E29" s="65"/>
       <c r="F29" s="65"/>
@@ -2121,7 +2122,7 @@
       <c r="L29" s="64"/>
       <c r="M29" s="160"/>
       <c r="N29" s="160"/>
-      <c r="O29" s="217"/>
+      <c r="O29" s="166"/>
       <c r="P29" s="67"/>
       <c r="Q29" s="65"/>
       <c r="R29" s="65"/>
@@ -2131,9 +2132,9 @@
       <c r="V29" s="65"/>
       <c r="W29" s="66"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="170"/>
-      <c r="C30" s="172" t="s">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B30" s="209"/>
+      <c r="C30" s="211" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="58"/>
@@ -2157,9 +2158,9 @@
       <c r="V30" s="59"/>
       <c r="W30" s="60"/>
     </row>
-    <row r="31" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="171"/>
-      <c r="C31" s="173"/>
+    <row r="31" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="210"/>
+      <c r="C31" s="212"/>
       <c r="D31" s="69"/>
       <c r="E31" s="70"/>
       <c r="F31" s="70"/>
@@ -2181,11 +2182,11 @@
       <c r="V31" s="70"/>
       <c r="W31" s="71"/>
     </row>
-    <row r="32" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="176" t="s">
+    <row r="32" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="174" t="s">
+      <c r="C32" s="213" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="125"/>
@@ -2209,9 +2210,9 @@
       <c r="V32" s="140"/>
       <c r="W32" s="122"/>
     </row>
-    <row r="33" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="177"/>
-      <c r="C33" s="175"/>
+    <row r="33" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="216"/>
+      <c r="C33" s="214"/>
       <c r="D33" s="130"/>
       <c r="E33" s="126"/>
       <c r="F33" s="151"/>
@@ -2233,9 +2234,9 @@
       <c r="V33" s="151"/>
       <c r="W33" s="152"/>
     </row>
-    <row r="34" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="177"/>
-      <c r="C34" s="174" t="s">
+    <row r="34" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="216"/>
+      <c r="C34" s="213" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="134"/>
@@ -2259,9 +2260,9 @@
       <c r="V34" s="144"/>
       <c r="W34" s="132"/>
     </row>
-    <row r="35" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="178"/>
-      <c r="C35" s="175"/>
+    <row r="35" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="217"/>
+      <c r="C35" s="214"/>
       <c r="D35" s="138"/>
       <c r="E35" s="135"/>
       <c r="F35" s="135"/>
@@ -2269,7 +2270,7 @@
       <c r="H35" s="137"/>
       <c r="I35" s="135"/>
       <c r="J35" s="135"/>
-      <c r="K35" s="216"/>
+      <c r="K35" s="165"/>
       <c r="L35" s="138"/>
       <c r="M35" s="135"/>
       <c r="N35" s="135"/>
@@ -2277,15 +2278,15 @@
       <c r="P35" s="137"/>
       <c r="Q35" s="135"/>
       <c r="R35" s="135"/>
-      <c r="S35" s="216"/>
+      <c r="S35" s="165"/>
       <c r="T35" s="138"/>
       <c r="U35" s="135"/>
       <c r="V35" s="160"/>
       <c r="W35" s="136"/>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B36" s="165"/>
-      <c r="C36" s="167" t="s">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B36" s="204"/>
+      <c r="C36" s="206" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="74"/>
@@ -2309,9 +2310,9 @@
       <c r="V36" s="63"/>
       <c r="W36" s="148"/>
     </row>
-    <row r="37" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="166"/>
-      <c r="C37" s="168"/>
+    <row r="37" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="205"/>
+      <c r="C37" s="207"/>
       <c r="D37" s="79"/>
       <c r="E37" s="80"/>
       <c r="F37" s="80"/>
@@ -2335,6 +2336,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
     <mergeCell ref="B2:G5"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="Q4:S4"/>
@@ -2351,25 +2371,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
